--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.466</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.125</v>
+        <v>16.009</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.116</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.856</v>
+        <v>20.332</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.713</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.599</v>
+        <v>9.705</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.15783009519728</v>
+        <v>10.32770567080012</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.24556744667478</v>
+        <v>16.53739457419933</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.25874071882631</v>
+        <v>25.06716737554236</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21.16540911950638</v>
+        <v>-1.920422736549519</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.21749543627666</v>
+        <v>15.12272117800199</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.24159677483875</v>
+        <v>21.22364124650923</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.20906943520353</v>
+        <v>4.703733505621244</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.25411153824643</v>
+        <v>26.19237665820457</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.26924111247101</v>
+        <v>33.75361456928132</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.26217294568581</v>
+        <v>19.90251828812131</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21.28542480021252</v>
+        <v>26.46186814816602</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.30002708344053</v>
+        <v>28.77393604223142</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.17713474808666</v>
+        <v>12.01549424404557</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.25076973679074</v>
+        <v>18.66474564966801</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21.28144177949419</v>
+        <v>31.6319622301273</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.13167725023039</v>
+        <v>14.28027162888203</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.2604112310492</v>
+        <v>22.98471366602446</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>21.28213904924362</v>
+        <v>29.00601070430531</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21.12071714784075</v>
+        <v>-2.63438993427647</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.20355493105745</v>
+        <v>10.61812224634455</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.24027589257115</v>
+        <v>17.62339690311138</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.18217607029323</v>
+        <v>-1.465315005179054</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.25295210986182</v>
+        <v>19.45185530541563</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.18241708838537</v>
+        <v>12.38099747872007</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.28810396877371</v>
+        <v>27.63360084840974</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.29984595501968</v>
+        <v>32.28271449029631</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>21.20476340759173</v>
+        <v>2.282985968003313</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.27288563109224</v>
+        <v>32.13752545870526</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.29597929270532</v>
+        <v>34.04397807631971</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21.25345707085445</v>
+        <v>12.14235518348808</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.31204246363539</v>
+        <v>45.56738639833306</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>21.32595450063924</v>
+        <v>49.13050888358541</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>21.34550604678677</v>
+        <v>48.08775590966737</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21.37352564026356</v>
+        <v>55.90046821620776</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>21.38803853485101</v>
+        <v>57.31678668567103</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.24360465416146</v>
+        <v>26.51090334392668</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>21.33947997958748</v>
+        <v>47.69971396067295</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>21.36853909958515</v>
+        <v>55.4673634508132</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.17516930535708</v>
+        <v>18.93237566371297</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>21.32937204123579</v>
+        <v>37.64493947444309</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>21.34984080253005</v>
+        <v>41.86828663212189</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>21.18488085222856</v>
+        <v>5.713458558109519</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>21.29081144621223</v>
+        <v>33.86499267553263</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21.32691857933411</v>
+        <v>39.00852500564622</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>21.25312897403579</v>
+        <v>12.83717830307401</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>21.34335748716205</v>
+        <v>47.56767136042838</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.17577483582524</v>
+        <v>6.269428994927189</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.28109169953681</v>
+        <v>22.9573777375963</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>21.29314131536592</v>
+        <v>28.20846016046418</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.20123522299038</v>
+        <v>-0.6004628608975793</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.27045977774755</v>
+        <v>30.9095533306882</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.29361142713681</v>
+        <v>33.8031144379475</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.24903477312694</v>
+        <v>9.112216506268307</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>21.30847732832842</v>
+        <v>44.03141001710895</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>21.32259616491211</v>
+        <v>48.4150392466272</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>21.34271948130899</v>
+        <v>48.87409089076144</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>21.37073768412159</v>
+        <v>56.21951987308572</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.3855868146696</v>
+        <v>58.85893126116937</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.24033652564236</v>
+        <v>21.97590826719462</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>21.33771052531343</v>
+        <v>46.03364224301986</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21.36682304564343</v>
+        <v>54.41675810506669</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>21.16776824169246</v>
+        <v>12.58992400278995</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>21.32124313633719</v>
+        <v>33.05159509549301</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>21.3421484740499</v>
+        <v>38.76277310829449</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.18254813173112</v>
+        <v>1.658020422041378</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>21.2896776237857</v>
+        <v>32.1131341035148</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.32590181804622</v>
+        <v>39.22722146988272</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>21.24947965390971</v>
+        <v>9.479005203797545</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>21.34063917839797</v>
+        <v>46.23765750096973</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>21.17755435732101</v>
+        <v>2.61154443607267</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.26180618040127</v>
+        <v>15.99956842697459</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>21.27520139543911</v>
+        <v>25.74247890006097</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.19628897123954</v>
+        <v>-0.3434434011748628</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>21.24953267580354</v>
+        <v>26.09752814533667</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>21.27288349051648</v>
+        <v>34.24315358728819</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21.23424935214188</v>
+        <v>6.060556611692213</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>21.28005959476715</v>
+        <v>36.3457244815539</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>21.29510462301477</v>
+        <v>45.67331249108787</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>21.29683396237539</v>
+        <v>35.57209802922667</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>21.31949046105613</v>
+        <v>42.8818267208255</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>21.33434930012383</v>
+        <v>47.89964122407305</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21.21437363343259</v>
+        <v>14.014481143559</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>21.28939533581788</v>
+        <v>33.15715073117622</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>21.3191314112033</v>
+        <v>47.58540131562508</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>21.16405217372872</v>
+        <v>10.01602040533605</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>21.28725484570985</v>
+        <v>27.68592690667314</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21.3091865677764</v>
+        <v>36.76547513608498</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>21.17115882501821</v>
+        <v>2.321989339197575</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.25453022586566</v>
+        <v>27.48924905736414</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>21.29017814150589</v>
+        <v>38.65487893143844</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21.22447221979123</v>
+        <v>5.468215881413332</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21.2954764058775</v>
+        <v>37.52182640250141</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.27669219296123</v>
+        <v>27.62923444143927</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21.2642105927895</v>
+        <v>18.19744154440009</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>21.30942552908238</v>
+        <v>27.54079855067013</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>21.330424157448</v>
+        <v>31.73841466417361</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>21.15132669191891</v>
+        <v>3.776733147018</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>21.2741469828586</v>
+        <v>19.52945909219227</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>21.31711036299829</v>
+        <v>27.97930144537857</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.13004959563998</v>
+        <v>14.03292733084315</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>21.27762829200288</v>
+        <v>24.21854938722007</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>21.30438209071534</v>
+        <v>32.33037490557894</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.11546688050889</v>
+        <v>-5.133522894354584</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>21.21567026957771</v>
+        <v>11.5879149726335</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>21.2595270408901</v>
+        <v>20.17874126120005</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>21.19566367586849</v>
+        <v>0.2502745180524144</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>21.28117422838326</v>
+        <v>24.65529910097821</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.31023864829103</v>
+        <v>35.03456842748162</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.3275784923834</v>
+        <v>29.71786887997745</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>21.37713500627089</v>
+        <v>40.72223406825302</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>21.40544718611523</v>
+        <v>46.97298917891957</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>21.18439447130129</v>
+        <v>5.114253161504042</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>21.33317928673319</v>
+        <v>25.64037926019654</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>21.38502337939827</v>
+        <v>38.42354732422352</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>21.36606051565721</v>
+        <v>54.03337395418322</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>21.39222628162502</v>
+        <v>52.17367378911923</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>21.44486228450027</v>
+        <v>60.51005774104034</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.46592204527886</v>
+        <v>63.04920646286719</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>21.25726413722553</v>
+        <v>24.85389690001025</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>21.41264847444609</v>
+        <v>57.7638784653329</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.45405650711122</v>
+        <v>63.18802418410093</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.19443466569337</v>
+        <v>22.36575233737517</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>21.37012527159714</v>
+        <v>43.7499184759582</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.3952206220857</v>
+        <v>48.00533487500382</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>21.20379208821103</v>
+        <v>8.977058359470622</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>21.32969301145792</v>
+        <v>42.70634565228242</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>21.37259630713172</v>
+        <v>46.50594900319219</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>21.29168828114695</v>
+        <v>20.01964097407157</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>21.39885361897532</v>
+        <v>60.07224976654608</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>21.42655747754934</v>
+        <v>65.90722389816969</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>21.49281210063328</v>
+        <v>74.5280498033182</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>21.55010721673611</v>
+        <v>82.8747277598837</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.57864775171258</v>
+        <v>86.6495250933655</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>21.32432973604532</v>
+        <v>35.95907930021348</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>21.50936591080856</v>
+        <v>74.79680701476393</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>21.55917568947477</v>
+        <v>81.88903041892162</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.36365747910454</v>
+        <v>54.45483186986621</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.39063167122493</v>
+        <v>50.178529378368</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>21.44281903219499</v>
+        <v>57.76037556893838</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.4644075487701</v>
+        <v>62.06743384861133</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.2553627242482</v>
+        <v>19.95701658178536</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>21.41218644024508</v>
+        <v>56.42067215031945</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.45383090729528</v>
+        <v>63.45323630620261</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>21.19277732199881</v>
+        <v>17.20854792128696</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.36750131018798</v>
+        <v>41.21116745384268</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>21.39278692871947</v>
+        <v>46.3503544953357</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>21.20837166907144</v>
+        <v>6.289199032520138</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>21.33533076779863</v>
+        <v>43.44207025384812</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>21.37802463365005</v>
+        <v>48.40409393957636</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>21.29416346332042</v>
+        <v>18.02537590559876</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>21.40213372738645</v>
+        <v>61.09687938821518</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>21.42990242662824</v>
+        <v>67.91781494515806</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>21.49797108730279</v>
+        <v>76.56019751358001</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>21.5547849046354</v>
+        <v>83.99785793975087</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.58361154564053</v>
+        <v>89.20307601060928</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>21.32979102263621</v>
+        <v>33.77903103143201</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21.515998083951</v>
+        <v>77.08830464605239</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21.56564474773739</v>
+        <v>85.28298666838242</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>21.3190655925374</v>
+        <v>49.4829651209438</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>21.31903322562097</v>
+        <v>32.84426177866913</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>21.36196329366332</v>
+        <v>42.29968519318375</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>21.38343963704145</v>
+        <v>50.31887428729799</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.21025324771198</v>
+        <v>10.54705911410735</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21.33287851336676</v>
+        <v>42.38725623732635</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>21.37489547057902</v>
+        <v>53.95136561305949</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.181048910217</v>
+        <v>15.46395220829332</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21.32197549369287</v>
+        <v>37.27181739605149</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>21.34824943593685</v>
+        <v>47.02780772897697</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.18798592598032</v>
+        <v>6.45324506288868</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.28789058944005</v>
+        <v>38.59453100937606</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.32974042103751</v>
+        <v>49.33289545815551</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.25730065112192</v>
+        <v>14.32910065844658</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>21.34231561566387</v>
+        <v>53.0141148900908</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>21.37052218166045</v>
+        <v>65.2975009881041</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>21.40279632635107</v>
+        <v>60.05272357339904</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>21.44988561285299</v>
+        <v>71.00476548592172</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>21.47790653626985</v>
+        <v>80.63503746126045</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21.2660329975314</v>
+        <v>22.25925153992485</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>21.41322864880378</v>
+        <v>61.91583258075644</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>21.46299397587604</v>
+        <v>76.55498687728998</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>21.14753947886959</v>
+        <v>12.19383589485787</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.24483795659457</v>
+        <v>19.77819294738589</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.25898232303195</v>
+        <v>27.74039116363684</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>21.15199260916331</v>
+        <v>2.142179838226003</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.20837182790224</v>
+        <v>19.90920678416038</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.23479312132329</v>
+        <v>24.28712009790734</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21.20351116682396</v>
+        <v>9.195115505425022</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21.25232460695339</v>
+        <v>31.49352427850692</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.26867864697231</v>
+        <v>37.49921034278017</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>21.25436379375184</v>
+        <v>23.21312228423342</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.28090371658568</v>
+        <v>29.48516703754564</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.29679766315547</v>
+        <v>30.79161187375326</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.15407634864573</v>
+        <v>8.782243182041572</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.23502712681628</v>
+        <v>16.98818139955286</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.26684145213708</v>
+        <v>26.43082531877221</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.11628985852097</v>
+        <v>12.37646493734666</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.26022238787328</v>
+        <v>24.51706551587514</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>21.28432956905283</v>
+        <v>29.20666547944745</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.09963327790139</v>
+        <v>-4.026865372188734</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.19081811265118</v>
+        <v>12.98933517248367</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>21.23185914433048</v>
+        <v>17.97934798888001</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>21.17313821143337</v>
+        <v>1.922811980859912</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>21.25111990936087</v>
+        <v>26.40588802305021</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>21.16828594313619</v>
+        <v>14.12372005975929</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.28580867780656</v>
+        <v>29.95275005599867</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.29839283309781</v>
+        <v>34.86304111290741</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>21.1883062878765</v>
+        <v>6.335833193842355</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.26269559136287</v>
+        <v>35.97229138428285</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.28806417897658</v>
+        <v>36.94888525069187</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>21.24606711517876</v>
+        <v>16.10870506254973</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>21.31009924974492</v>
+        <v>49.40440363833157</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>21.32513577203333</v>
+        <v>52.20202563485195</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>21.33792862963226</v>
+        <v>46.95482873271973</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>21.36989473693549</v>
+        <v>54.09856853486186</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.38576377209552</v>
+        <v>55.41322845207565</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>21.21787715765535</v>
+        <v>18.39314937655524</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>21.32392547316972</v>
+        <v>40.31659631494425</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>21.3538467800319</v>
+        <v>45.47562045013272</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>21.15480089655464</v>
+        <v>13.74539646744868</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>21.32749225109936</v>
+        <v>34.86294749502392</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>21.3503433407734</v>
+        <v>38.89607469991409</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>21.16005039920127</v>
+        <v>0.936039888389562</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>21.27722702689157</v>
+        <v>31.85880319826201</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>21.31779867850094</v>
+        <v>36.14761398140261</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>21.24210944028444</v>
+        <v>11.71150679127485</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>21.34200232650454</v>
+        <v>48.94557644434869</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>21.15918665051744</v>
+        <v>8.724561135814493</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.27636850007942</v>
+        <v>25.79483447319069</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>21.2893199491028</v>
+        <v>31.32154140795192</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.18273002497358</v>
+        <v>3.92188881396504</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.25846445591264</v>
+        <v>35.01407045124284</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>21.28392440092373</v>
+        <v>36.93924174812238</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>21.23943856050525</v>
+        <v>13.47148776798135</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>21.30452439285441</v>
+        <v>48.03719514331656</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>21.31981647698147</v>
+        <v>51.65873315132625</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>21.33298946403142</v>
+        <v>47.27305260264554</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>21.36492709647186</v>
+        <v>53.89704487229457</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>21.38120264314673</v>
+        <v>56.49644183021826</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>21.21246789428736</v>
+        <v>13.59527286499739</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.32031075498443</v>
+        <v>38.18235499018211</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>21.3503794710605</v>
+        <v>44.00683017490977</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>21.14415043662001</v>
+        <v>7.987072634855098</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.31609172713172</v>
+        <v>30.47355911601576</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>21.33944915477555</v>
+        <v>35.93018768528306</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>21.15508333858757</v>
+        <v>-2.791107964641501</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>21.27371698692978</v>
+        <v>30.02703716727482</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>21.31444090619069</v>
+        <v>36.10175242871271</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>21.23556648381895</v>
+        <v>8.346344496779837</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>21.33659851379077</v>
+        <v>47.18336672657012</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>21.16589762856782</v>
+        <v>5.804362564940188</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.259491304011</v>
+        <v>19.81649587376917</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>21.27397379374456</v>
+        <v>29.23278346435099</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.18306014851655</v>
+        <v>4.15674126526477</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.2410541351107</v>
+        <v>30.44249701056216</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.26673310510641</v>
+        <v>36.90394581086424</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>21.22797719173716</v>
+        <v>10.9086754283388</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>21.27791907261588</v>
+        <v>41.1023734881614</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>21.29426941950495</v>
+        <v>49.0087109086807</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>21.28954575804193</v>
+        <v>37.19951187601156</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.31534669625927</v>
+        <v>43.93492748614837</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>21.33159370841194</v>
+        <v>48.11521735343421</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>21.19250318849484</v>
+        <v>9.154161893521964</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.2753258861806</v>
+        <v>29.05154004603625</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>21.3064027470257</v>
+        <v>40.10662619621718</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>21.1471310084753</v>
+        <v>6.078877519736675</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.28502066058785</v>
+        <v>25.99809773663376</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>21.30941991356318</v>
+        <v>33.57204905384006</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>21.15084431336636</v>
+        <v>-2.507425940998566</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.24293848542506</v>
+        <v>25.06713765862272</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>21.28284662940882</v>
+        <v>33.66932167628644</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>21.21482249068991</v>
+        <v>4.614089634937734</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.29331959794752</v>
+        <v>38.8587534483182</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>21.2774743995077</v>
+        <v>32.785354767198</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.25624747866406</v>
+        <v>22.31126139765464</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.30845320257676</v>
+        <v>33.52103911637823</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>21.33190878059386</v>
+        <v>37.67432471643473</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>21.1239618862468</v>
+        <v>4.533849425032955</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.26082065663126</v>
+        <v>23.74417456527087</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.30651659942153</v>
+        <v>29.90840461212907</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>21.11946664333978</v>
+        <v>13.75899382549734</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.28567382644019</v>
+        <v>28.26702756816918</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>21.3160199481539</v>
+        <v>36.50217306713742</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.097899719181</v>
+        <v>-7.341212277163663</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.20976211952609</v>
+        <v>14.61069622926795</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.25957478593174</v>
+        <v>22.36863269295845</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>21.19390999377136</v>
+        <v>3.930454509820223</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.28942732876495</v>
+        <v>33.07104140097181</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>21.32237981926762</v>
+        <v>42.66911889431671</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.33507380962738</v>
+        <v>34.55100201208458</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.39236970146369</v>
+        <v>45.73418957138907</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.42382223209959</v>
+        <v>52.77862920866092</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.16670535306243</v>
+        <v>4.958083384131747</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>21.33449611940139</v>
+        <v>30.80600026345888</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>21.39092426332408</v>
+        <v>41.62621642150516</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>21.36735095895106</v>
+        <v>54.72541910338393</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>21.38575973560479</v>
+        <v>48.93223740291312</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>21.44644727872765</v>
+        <v>58.58787570859568</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>21.4701709627921</v>
+        <v>62.70559811979098</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.22768770738127</v>
+        <v>18.1565145246618</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21.4013440806775</v>
+        <v>54.04109707535608</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.44534497244146</v>
+        <v>58.22687654257162</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.1820850674898</v>
+        <v>18.36847121588648</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>21.38013840166715</v>
+        <v>43.1610855233905</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>21.40881686208591</v>
+        <v>48.35202664925237</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.18607286606292</v>
+        <v>2.679519855756169</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>21.32697668296821</v>
+        <v>40.8219823823835</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>21.37598766545327</v>
+        <v>44.4783785486526</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.29180428033315</v>
+        <v>18.81446661862081</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>21.41181181456086</v>
+        <v>62.65699928496349</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>21.44343519853059</v>
+        <v>68.44350496283587</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>21.50740614029103</v>
+        <v>71.20725705232501</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>21.57356711805146</v>
+        <v>79.8430547118929</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>21.60544606959644</v>
+        <v>85.73967075593865</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>21.30943425494802</v>
+        <v>27.74390809974963</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>21.51834773562276</v>
+        <v>71.66697671685449</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>21.57258096650774</v>
+        <v>77.3698192223048</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>21.36231996856619</v>
+        <v>54.59591773359176</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>21.38119464195171</v>
+        <v>46.12933850395528</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>21.44131529038059</v>
+        <v>54.83896903201437</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>21.46566425492466</v>
+        <v>60.74735016470385</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.22283887798074</v>
+        <v>12.51574113161999</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.39821918348647</v>
+        <v>51.57379515523813</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.44258203936307</v>
+        <v>57.25014418673009</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.17773436655594</v>
+        <v>13.27958930960592</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.37475049915257</v>
+        <v>40.40144521404742</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>21.40363440235461</v>
+        <v>46.34145414186127</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>21.18875935978633</v>
+        <v>0.08072820017952154</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>21.33094343471548</v>
+        <v>41.37503488576202</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>21.37971006967404</v>
+        <v>45.92736077141264</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>21.29198592036139</v>
+        <v>16.60192190127324</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>21.41297524678631</v>
+        <v>63.15552209869038</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>21.44466562706251</v>
+        <v>69.7471511846021</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>21.51022976233152</v>
+        <v>72.20152343345185</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>21.57578862430148</v>
+        <v>80.00334141276844</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>21.60801876858447</v>
+        <v>87.25317283331854</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>21.31270753578756</v>
+        <v>24.59182033883685</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21.52301235523996</v>
+        <v>72.85039307059053</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>21.57712529585317</v>
+        <v>79.46357644365553</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>21.31957389353208</v>
+        <v>48.66150661310846</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>21.31163162944945</v>
+        <v>31.06404039858256</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>21.36108739450027</v>
+        <v>41.8841427337281</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>21.38512519047095</v>
+        <v>49.95248672661172</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.18431181888417</v>
+        <v>5.674039326389163</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.32123390226563</v>
+        <v>39.59902998843432</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>21.36619511773471</v>
+        <v>48.50544674048997</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>21.17075837787819</v>
+        <v>12.66656354075245</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.32958657509222</v>
+        <v>37.94661133140858</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.35938264260343</v>
+        <v>47.71866727607594</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>21.17356244267719</v>
+        <v>0.94390893971023</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>21.28532133416902</v>
+        <v>37.46660330110997</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>21.33285991680059</v>
+        <v>46.88882779906581</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>21.25682470095235</v>
+        <v>14.14661323725306</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>21.35197892455934</v>
+        <v>56.63024270436257</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>21.3839615869203</v>
+        <v>67.84884851187184</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>21.41272387478053</v>
+        <v>59.50301168755541</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>21.4670637705389</v>
+        <v>70.56821845221012</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>21.49823701619579</v>
+        <v>81.04233377640391</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.25210690549553</v>
+        <v>16.90502232610496</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.41826902203399</v>
+        <v>61.35373795735907</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>21.47259260241021</v>
+        <v>73.74606789025984</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.15477485090144</v>
+        <v>9.615121008552237</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.25815717542829</v>
+        <v>19.14148308504997</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>21.27209790066924</v>
+        <v>27.95843753312799</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.16404752132858</v>
+        <v>-1.85569157597681</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.22693670950643</v>
+        <v>19.23116706771883</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.25319166242921</v>
+        <v>25.56772467187948</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.21521931210053</v>
+        <v>6.77438495012721</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21.26947789080822</v>
+        <v>32.15609452125612</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>21.28569405197625</v>
+        <v>39.86896534542537</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21.2788121544158</v>
+        <v>23.39401879824183</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.3072151734665</v>
+        <v>30.96687872015276</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.32306188874265</v>
+        <v>33.0137606926841</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21.17785681351749</v>
+        <v>11.27171060526153</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.26629450886951</v>
+        <v>21.03575164228508</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>21.29943691822439</v>
+        <v>33.69226361311965</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.13782785898049</v>
+        <v>18.01304788927597</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>21.28948218640658</v>
+        <v>30.8093916545359</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>21.31253249719225</v>
+        <v>35.29399531646814</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.12680954123261</v>
+        <v>0.1100759116913856</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.22635152434319</v>
+        <v>18.62171624516349</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.26622631442986</v>
+        <v>23.94804693672851</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>21.19874038577162</v>
+        <v>5.047160949048241</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.2836709530665</v>
+        <v>30.95685040565777</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.18325494416167</v>
+        <v>13.51202071284928</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.30747275343992</v>
+        <v>32.41082047670822</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.31962830606162</v>
+        <v>37.13354993567504</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.20936157235274</v>
+        <v>3.918953417141701</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>21.29092742585657</v>
+        <v>38.20383825787601</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>21.31585949782327</v>
+        <v>40.0591992207971</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>21.26643651068471</v>
+        <v>16.13731285041047</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>21.33646465225366</v>
+        <v>53.78879267642493</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>21.35114555760421</v>
+        <v>57.26817775476385</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>21.37465259588149</v>
+        <v>52.95086575468078</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>21.40866105448619</v>
+        <v>61.7313289494736</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>21.42431923933295</v>
+        <v>62.83274717912887</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>21.2540288983169</v>
+        <v>26.25566959546552</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>21.36833521161589</v>
+        <v>50.92110319693948</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>21.39938862184638</v>
+        <v>58.20939638628755</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>21.18822342318499</v>
+        <v>23.71292013451861</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>21.36943378489244</v>
+        <v>46.71260126318887</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>21.39081865972392</v>
+        <v>48.99009118998625</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>21.20078713830053</v>
+        <v>8.882646062388506</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.32720401198023</v>
+        <v>42.60471136349422</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>21.36611517406837</v>
+        <v>45.49010206021661</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>21.28070671226289</v>
+        <v>20.00678691700865</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>21.38827279134493</v>
+        <v>59.96675245086087</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>21.17572260087009</v>
+        <v>8.000767293473471</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.29944159626026</v>
+        <v>28.39251202515909</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>21.31196156312011</v>
+        <v>33.60900063345307</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>21.20542321668801</v>
+        <v>1.65656179383015</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.28816905608645</v>
+        <v>37.65540725449276</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.31318303315774</v>
+        <v>40.34678853899651</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.26141577742686</v>
+        <v>13.74681449939925</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.33235769151088</v>
+        <v>52.937400638753</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.34728786301302</v>
+        <v>57.11054858520954</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.37152139811946</v>
+        <v>54.34492353725299</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.40547617148365</v>
+        <v>62.66936387489224</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.42153348751713</v>
+        <v>64.92163837146991</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.25044010508214</v>
+        <v>22.20174616849674</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>21.36635935759558</v>
+        <v>49.84055623982844</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>21.39750066017574</v>
+        <v>57.62941920486245</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.17939394039682</v>
+        <v>17.71176055620048</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>21.35965981194375</v>
+        <v>42.50637807261982</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.38156619565822</v>
+        <v>46.09493399338285</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.1977633747983</v>
+        <v>5.1164136403161</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.32543228620721</v>
+        <v>41.19309384117466</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.36450539773107</v>
+        <v>45.79511247110578</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21.27610337945779</v>
+        <v>16.87445072956322</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.38463564006063</v>
+        <v>58.8971535563163</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.17737026303942</v>
+        <v>4.273807230069099</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.27648318867644</v>
+        <v>21.22611909874563</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.29075754165278</v>
+        <v>31.10648556350389</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.19947286613253</v>
+        <v>2.083587964567222</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.26338061775217</v>
+        <v>32.86062139243271</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.28887208304974</v>
+        <v>40.98753744589035</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>21.24393074862155</v>
+        <v>10.73331908309628</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.29881596711222</v>
+        <v>45.16267448715001</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.31501390053856</v>
+        <v>54.42996142551343</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.31837135932467</v>
+        <v>41.54315875167362</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.34590373446696</v>
+        <v>49.93539178974626</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.36211124397748</v>
+        <v>54.52967458858623</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.22070832050889</v>
+        <v>15.11321181648627</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.31034608715195</v>
+        <v>37.69873589966531</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.34256398576794</v>
+        <v>51.62491450416833</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>21.17351427302481</v>
+        <v>14.77357733607868</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.31842511973403</v>
+        <v>36.76220960458028</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.34183806423635</v>
+        <v>43.83671422474914</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.18314632751511</v>
+        <v>5.744981493888584</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.2828507481418</v>
+        <v>36.46338458577921</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>21.32165482554602</v>
+        <v>45.29050917724583</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.24551534948693</v>
+        <v>12.73909896169519</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.33033582023676</v>
+        <v>50.02520216443176</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.30906575584534</v>
+        <v>37.49150602237688</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.30025217541553</v>
+        <v>29.07106524053611</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.35458302801611</v>
+        <v>40.09364399001497</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.37738463956384</v>
+        <v>43.80925283939474</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.16661054675813</v>
+        <v>12.04018788583476</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.31320347955699</v>
+        <v>32.30994364061746</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.35932926764759</v>
+        <v>39.10614712219881</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.1328174405677</v>
+        <v>16.88394506037341</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>21.30621913209703</v>
+        <v>30.83039058802942</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>21.3349931426205</v>
+        <v>37.3572997796337</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.11690464013212</v>
+        <v>-5.398699647170158</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>21.23651248186601</v>
+        <v>16.1802135960891</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.28452500092597</v>
+        <v>23.03563625500381</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.21080066808783</v>
+        <v>3.343703607933755</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.3127563902206</v>
+        <v>32.32203059746595</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>21.34421802458686</v>
+        <v>40.99155120966839</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>21.36891789652609</v>
+        <v>35.89701760371741</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>21.42823561077337</v>
+        <v>48.16321799175086</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>21.45918241181982</v>
+        <v>53.60929199106097</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>21.20033961357414</v>
+        <v>8.841173229033732</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>21.37692529894815</v>
+        <v>33.98500688310617</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.43310353399631</v>
+        <v>44.43545428481561</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>21.41226303706843</v>
+        <v>64.29543814249593</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>21.44778591928219</v>
+        <v>63.47463036157723</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>21.51080704464072</v>
+        <v>73.28056021549006</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.53356762603304</v>
+        <v>75.33610781850447</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>21.28843314295419</v>
+        <v>33.14002514477328</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>21.47286474385953</v>
+        <v>70.88596833995626</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.51684757973195</v>
+        <v>74.12015930143991</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.20654555769252</v>
+        <v>24.32254402794108</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>21.41254361226741</v>
+        <v>49.60806709119989</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>21.43918304821517</v>
+        <v>51.73901956261442</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>21.21787308463603</v>
+        <v>7.419648655389382</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>21.36735285809401</v>
+        <v>46.23859083962073</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>21.41399922223105</v>
+        <v>47.57659800715922</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.32085596704295</v>
+        <v>21.63380951662618</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>21.44798142465964</v>
+        <v>66.42036592005289</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>21.47765672150928</v>
+        <v>69.91243860986324</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>21.55833411078924</v>
+        <v>79.02441326598685</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>21.62670182457704</v>
+        <v>88.46707719164161</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>21.65777210912989</v>
+        <v>91.34392960251158</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.36033311133886</v>
+        <v>37.78957343261381</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>21.57900069577035</v>
+        <v>81.56795094992989</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>21.63246133182837</v>
+        <v>85.59099820682925</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.40900925562942</v>
+        <v>64.76139152841677</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.44539983242056</v>
+        <v>61.65735161419089</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>21.50782987202452</v>
+        <v>70.66782486327043</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.53121742903519</v>
+        <v>74.37520976251761</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.28580995929206</v>
+        <v>28.33498869636983</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>21.47173778177662</v>
+        <v>69.70778443838361</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.5160346068699</v>
+        <v>74.31398902349626</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.2043406722194</v>
+        <v>19.11900413261274</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.40911653024848</v>
+        <v>47.0168516473034</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>21.43599267648163</v>
+        <v>49.84096628353742</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>21.22282926821389</v>
+        <v>4.756795375377731</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>21.37339534155459</v>
+        <v>46.99649716451288</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>21.41982660458802</v>
+        <v>49.22916431320645</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>21.32331806181977</v>
+        <v>19.56211247581079</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>21.4512615060873</v>
+        <v>67.35073429402425</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.48103080199944</v>
+        <v>71.60050697920539</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.56374170696681</v>
+        <v>80.97243535981696</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>21.63148057704115</v>
+        <v>89.46831786524783</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>21.6629028564849</v>
+        <v>93.62713870899617</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.36620689064013</v>
+        <v>35.52564718848598</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.58605686313912</v>
+        <v>83.80692788285896</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>21.6393716397534</v>
+        <v>88.68336188125473</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>21.35568679185797</v>
+        <v>59.77062898463704</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>21.36085564041675</v>
+        <v>44.5166131474946</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>21.4122934011139</v>
+        <v>55.6007498109389</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>21.43574038298338</v>
+        <v>62.88343272416981</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.23232917411701</v>
+        <v>19.32338476888989</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>21.37813132669744</v>
+        <v>55.96432753378113</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>21.42340183643253</v>
+        <v>65.2563793875957</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.19013765633968</v>
+        <v>18.54413673579145</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21.35549983637899</v>
+        <v>44.20089821324072</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>21.38384791919941</v>
+        <v>51.87273401525916</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.19890125276208</v>
+        <v>6.335254517137258</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.31770509429897</v>
+        <v>43.48362234490401</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.36357102037289</v>
+        <v>51.79474179049652</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>21.2800533897451</v>
+        <v>17.53714204605775</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>21.38105916383223</v>
+        <v>60.89893156190777</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.4116622001767</v>
+        <v>70.86856122053925</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.45326358170492</v>
+        <v>66.48016805006762</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>21.50948074630325</v>
+        <v>78.63138261906657</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>21.54020492588171</v>
+        <v>87.07088747382555</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.29247379308154</v>
+        <v>26.18174215509388</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.46665313064117</v>
+        <v>70.67198036890517</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.52067797725763</v>
+        <v>82.29349966565445</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.13909667271436</v>
+        <v>10.92333296679958</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.22606487848033</v>
+        <v>13.20167206052807</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.23950888603513</v>
+        <v>19.08434068059928</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.13853080637526</v>
+        <v>0.3219807251251865</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.18596230475318</v>
+        <v>9.60027449039894</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.21103128024776</v>
+        <v>12.40315718457782</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.18633428965649</v>
+        <v>4.428484971855202</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.22758950691412</v>
+        <v>18.42946548793478</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.24309718657117</v>
+        <v>22.7742067264917</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.22331620295169</v>
+        <v>13.15520835161466</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.24545245422479</v>
+        <v>17.34175593925007</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.26110370462275</v>
+        <v>18.41833108209897</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.13296379160326</v>
+        <v>5.071184110419008</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.20240638295473</v>
+        <v>8.352971801487771</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.23223189550891</v>
+        <v>14.43798304460576</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>21.10895154212719</v>
+        <v>11.53285135961017</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.23826288929993</v>
+        <v>17.75877872593717</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.26158227809645</v>
+        <v>22.97040600524223</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>21.08825345373372</v>
+        <v>-1.711848224450851</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.16653787457086</v>
+        <v>7.072656590233166</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.20599394818128</v>
+        <v>12.82613110559903</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.15599758647249</v>
+        <v>0.8795812967712813</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.22312105888197</v>
+        <v>16.81541288560121</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.15768490312594</v>
+        <v>12.09154911937834</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.2634065973767</v>
+        <v>21.75070065350921</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.27542084968634</v>
+        <v>25.16006453416145</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>21.17154287823755</v>
+        <v>3.926271442611295</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.23556769875646</v>
+        <v>23.78049543221856</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>21.25969553500651</v>
+        <v>23.87427320884047</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.22516682872346</v>
+        <v>10.18846061650814</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.28044870972392</v>
+        <v>34.01000834015848</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.29475239743256</v>
+        <v>35.76855925403358</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.29995970481015</v>
+        <v>33.10356028765059</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.32700907640009</v>
+        <v>38.14793285301475</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>21.34272760270116</v>
+        <v>39.65386413792764</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.19125023238373</v>
+        <v>12.82103274730584</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>21.28390731157979</v>
+        <v>28.34279640259212</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.31197981189455</v>
+        <v>30.9998065114297</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.14468825283847</v>
+        <v>12.34959682260514</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.30070268243084</v>
+        <v>26.69584436559641</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.3229429752751</v>
+        <v>31.95169454094793</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.1444714323732</v>
+        <v>2.986968432871205</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.24675517269226</v>
+        <v>24.2151622570025</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.28589806821756</v>
+        <v>30.14403038996575</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.22014230890883</v>
+        <v>9.753439482512807</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.307502482896</v>
+        <v>37.12295537016562</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.14908498171436</v>
+        <v>7.34776921763353</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.25463380343634</v>
+        <v>18.05842929195414</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.26702402164171</v>
+        <v>22.18856045035012</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.16638381417552</v>
+        <v>1.732209850370111</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.23185406799089</v>
+        <v>22.84712461414451</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.25610174420565</v>
+        <v>23.98934101543737</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>21.219061949582</v>
+        <v>7.834359289327086</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.27548487461382</v>
+        <v>32.75357557492588</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.29005865180247</v>
+        <v>35.4277243787734</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>21.29565731566202</v>
+        <v>33.07370925356491</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.32277087222512</v>
+        <v>37.63355732889302</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.33887606142792</v>
+        <v>40.39258311843221</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21.1863812611201</v>
+        <v>8.459357288278765</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.28094325755496</v>
+        <v>26.21084733324136</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>21.30920886582708</v>
+        <v>29.66491186318439</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.13449789288613</v>
+        <v>7.004826249112414</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.29000406856148</v>
+        <v>22.42465027115473</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.31275319288327</v>
+        <v>29.22161776589581</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.13975423690724</v>
+        <v>-0.6961569821964773</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.2436495136362</v>
+        <v>22.05296014777158</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>21.28297059734544</v>
+        <v>29.91193855662727</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>21.21402062745964</v>
+        <v>6.465517417836889</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.30265274599549</v>
+        <v>35.11513457894149</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>21.15697105430922</v>
+        <v>4.793831813821779</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.24096394389599</v>
+        <v>12.48454319131863</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.2547839366747</v>
+        <v>20.07476008439905</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.16885807449041</v>
+        <v>1.419816770493021</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21.21843044140437</v>
+        <v>17.90260040112178</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.24286280755287</v>
+        <v>23.07608051291472</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>21.21055635593345</v>
+        <v>5.169921851661002</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>21.25339038699265</v>
+        <v>25.85911021571057</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>21.26895139159049</v>
+        <v>32.36496714767394</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.25855476265351</v>
+        <v>23.9575319457788</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>21.28030790218703</v>
+        <v>28.44913724971262</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.2962754841797</v>
+        <v>32.37997807489772</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.17082453067328</v>
+        <v>4.516624156298604</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.24277870327922</v>
+        <v>17.77448418618859</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>21.27202797815904</v>
+        <v>25.73158239063588</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.13838149005957</v>
+        <v>5.253402899703794</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>21.26269030953792</v>
+        <v>17.86372331115444</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.28632581297408</v>
+        <v>26.37100976454872</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.13737249120456</v>
+        <v>-1.124045636485022</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.21734577632804</v>
+        <v>16.37194473506966</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.25577379068445</v>
+        <v>26.25609369871766</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.19635411492156</v>
+        <v>2.479690038142611</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.26465548835206</v>
+        <v>26.48930971792363</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.24853004793791</v>
+        <v>23.8648395140347</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.22007780790804</v>
+        <v>14.50856083761572</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.26555319370577</v>
+        <v>23.06956738913476</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>21.2887832626402</v>
+        <v>27.59215852137663</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>21.10072438940185</v>
+        <v>1.482154388378369</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.22050963331155</v>
+        <v>13.64302102642133</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.26406822729797</v>
+        <v>20.01578760661749</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>21.11519401404247</v>
+        <v>13.65137388476706</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>21.26551930337403</v>
+        <v>22.33355336985916</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.29474458994299</v>
+        <v>30.56543030054001</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.09009130610449</v>
+        <v>-5.207419701417884</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>21.18786010375195</v>
+        <v>8.60089693924593</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>21.23563043986062</v>
+        <v>16.53301068492237</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.17898520646363</v>
+        <v>2.813359335719742</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.26263382409114</v>
+        <v>23.42524315129927</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>21.29429041084455</v>
+        <v>33.13901228003299</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>21.29836129047152</v>
+        <v>25.98449276729562</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.34859710522164</v>
+        <v>34.21157471151034</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.37961445457331</v>
+        <v>42.20590286812865</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>21.14505338410407</v>
+        <v>2.963975787222463</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>21.29397370054728</v>
+        <v>20.78112382812221</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>21.34775011768305</v>
+        <v>31.35200258080436</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>21.33206334907051</v>
+        <v>44.35707145461397</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>21.34031621926881</v>
+        <v>37.85486977985468</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>21.39353765860417</v>
+        <v>45.21750657499206</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>21.41716608183685</v>
+        <v>50.2904782950252</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>21.19698798920853</v>
+        <v>13.23633122615978</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.35088122937503</v>
+        <v>40.396357532199</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.39296023806336</v>
+        <v>45.94944953767535</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>21.17452987805486</v>
+        <v>18.78378288816965</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>21.35447797548882</v>
+        <v>36.66886557453563</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>21.38224079549172</v>
+        <v>42.86705828582086</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.17344544040206</v>
+        <v>5.288557033492104</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>21.29809554142242</v>
+        <v>33.50872651923982</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>21.34524679099194</v>
+        <v>38.64893108742152</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>21.27134358637843</v>
+        <v>17.8924081273077</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>21.37766631952694</v>
+        <v>51.60956555982037</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>21.40817528009238</v>
+        <v>58.70122582003317</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>21.46013499231826</v>
+        <v>60.24620817256938</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>21.51847432792842</v>
+        <v>66.38809274427229</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>21.5500604472421</v>
+        <v>73.97040947965476</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>21.27924729645522</v>
+        <v>24.6258885916497</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>21.46636077241754</v>
+        <v>58.56026652410744</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>21.51819783670842</v>
+        <v>65.55232692018612</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.32759571524328</v>
+        <v>44.10613895293179</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>21.336334842477</v>
+        <v>34.82731498211226</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>21.38914160944747</v>
+        <v>41.32148128392466</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>21.41336169039504</v>
+        <v>48.1733734166116</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>21.19257888028821</v>
+        <v>7.922163878531968</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>21.3483837963925</v>
+        <v>37.66698792324489</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>21.39086313703667</v>
+        <v>44.89510722068578</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>21.17026262690763</v>
+        <v>14.16350324565333</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>21.34943270105524</v>
+        <v>33.99701385398478</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>21.37742340280031</v>
+        <v>41.16421170839958</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>21.17593480033186</v>
+        <v>2.661783645903668</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.30203158751939</v>
+        <v>33.54118772069519</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>21.34898974535021</v>
+        <v>39.85947501618695</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>21.27155153709338</v>
+        <v>15.72093578476955</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>21.3789993105271</v>
+        <v>51.72458517152285</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>21.40960454940146</v>
+        <v>59.87176641972626</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>21.46311901179876</v>
+        <v>60.70787712568061</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>21.52101246186587</v>
+        <v>66.11438293043723</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>21.55292689885609</v>
+        <v>75.11471615460343</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>21.28249151020136</v>
+        <v>21.55595900409339</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>21.47120568894743</v>
+        <v>59.14502806757843</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>21.5229905805247</v>
+        <v>67.3410806323872</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>21.29001012080834</v>
+        <v>37.41940292361651</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.27455140325539</v>
+        <v>20.67150163843656</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>21.31784615769612</v>
+        <v>28.7797805418019</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>21.34158829759581</v>
+        <v>37.2673611960931</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.15931437626656</v>
+        <v>1.551521838833931</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>21.28016441335357</v>
+        <v>26.06776881568203</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>21.32313302641768</v>
+        <v>35.79658686726079</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>21.16376064480476</v>
+        <v>12.56916883603981</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>21.30782536960981</v>
+        <v>30.39938617853802</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>21.3365784813229</v>
+        <v>40.82373571771497</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.16212993641399</v>
+        <v>1.676066776231629</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>21.26063733468895</v>
+        <v>27.89413256312247</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>21.30630822302495</v>
+        <v>38.34490306534239</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>21.23922204148136</v>
+        <v>11.56046217087284</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>21.3232239187476</v>
+        <v>43.54998881433747</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>21.35401114132631</v>
+        <v>55.65377379524583</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>21.37369625360759</v>
+        <v>47.060953320837</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>21.42156161592817</v>
+        <v>55.16644008950833</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>21.45226095717938</v>
+        <v>66.91432470931056</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>21.22711935036323</v>
+        <v>12.95936051747324</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>21.37551624826171</v>
+        <v>46.70205894699502</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.42741317290586</v>
+        <v>59.75643049590911</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.19316995489359</v>
+        <v>14.93005270856667</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.25695188417873</v>
+        <v>22.07425789491288</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.2662064417876</v>
+        <v>30.69558923415143</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.20106215814468</v>
+        <v>6.588523994537812</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.23916373566054</v>
+        <v>24.76650147545648</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>21.2562483620903</v>
+        <v>31.230152064616</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>21.23149440542064</v>
+        <v>12.36970727585195</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.264432679448</v>
+        <v>34.49115093637376</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.27510522239612</v>
+        <v>42.24803592956322</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.27243106385676</v>
+        <v>26.45733680486173</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>21.28938046206349</v>
+        <v>33.14051419762942</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.29971058149368</v>
+        <v>35.52747988884065</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.21098108748545</v>
+        <v>18.21793811361644</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>21.26464600135807</v>
+        <v>25.42961894183289</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.28649907206908</v>
+        <v>38.80137781968877</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.17752792294151</v>
+        <v>17.84420375345138</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>21.27091655287404</v>
+        <v>26.36347605184427</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.2861025116579</v>
+        <v>31.7296120894434</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.17267240856734</v>
+        <v>5.811349507347021</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>21.23298253403303</v>
+        <v>19.1745861330464</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>21.25887991235613</v>
+        <v>25.47306746146093</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.2155097886559</v>
+        <v>4.663674626791238</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.26703388841068</v>
+        <v>25.14430851251985</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.21207773232808</v>
+        <v>17.66285769362623</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>21.28883867504421</v>
+        <v>33.54809233250266</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>21.2970182525239</v>
+        <v>38.27348085094592</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>21.23083010550256</v>
+        <v>11.24951799515747</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>21.28053159137757</v>
+        <v>41.77637367101633</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>21.29683866600523</v>
+        <v>44.0279146324485</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>21.26478895539967</v>
+        <v>20.21763636551669</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>21.30752424371432</v>
+        <v>53.84144238581226</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>21.31727716282694</v>
+        <v>57.59379172561687</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.33410998792031</v>
+        <v>54.12027188606054</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>21.35450443317121</v>
+        <v>61.98606112369045</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>21.36474260078151</v>
+        <v>63.39938850438356</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>21.26051228769662</v>
+        <v>32.76095700674734</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>21.33024795456319</v>
+        <v>53.89564331187131</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>21.35088424436922</v>
+        <v>62.15359658172328</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>21.21026521588858</v>
+        <v>22.79716033512307</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>21.32205041766927</v>
+        <v>40.79771458278945</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>21.3362543266773</v>
+        <v>44.12211406843298</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>21.22057069810421</v>
+        <v>14.04201744880269</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.29756262778202</v>
+        <v>41.53303523632286</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>21.32292878024229</v>
+        <v>45.66496622584989</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>21.26816366083099</v>
+        <v>18.54306834984585</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.3337402921768</v>
+        <v>52.12057500963792</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>21.20713001634455</v>
+        <v>11.98708187864223</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>21.28361020934473</v>
+        <v>29.29223272187761</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>21.29201276609475</v>
+        <v>34.50761040953496</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.22807209510641</v>
+        <v>8.611762918474282</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>21.27855403200622</v>
+        <v>40.75940981136125</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.29490449573755</v>
+        <v>43.8549195109369</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>21.26141259441684</v>
+        <v>17.48283780451558</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>21.30475365222797</v>
+        <v>52.57680303952144</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>21.31465682690406</v>
+        <v>57.02164061845281</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>21.33188941325713</v>
+        <v>55.10822524525142</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>21.35227930881877</v>
+        <v>62.53505937295935</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>21.36276094856161</v>
+        <v>65.0516841808647</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>21.25794643058135</v>
+        <v>28.59572246440775</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>21.32874830366708</v>
+        <v>52.5268362471052</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>21.3494215101196</v>
+        <v>61.26865637467407</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>21.20471682058288</v>
+        <v>16.90913554766867</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.31596228201869</v>
+        <v>36.6477097263613</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>21.33048580146022</v>
+        <v>41.26362810615444</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.21860557496816</v>
+        <v>10.22402420743136</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.29644702100735</v>
+        <v>39.97864392104355</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>21.32190367186336</v>
+        <v>45.84198125347866</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>21.26528786344631</v>
+        <v>15.44916140539489</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>21.33152295889658</v>
+        <v>51.02958785365212</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>21.20667623418258</v>
+        <v>8.202897105260321</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.26789534417667</v>
+        <v>22.40912494502812</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>21.27732217514579</v>
+        <v>32.00351652666146</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>21.22240475907171</v>
+        <v>8.853193135371736</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>21.26128964532002</v>
+        <v>36.23197717035887</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>21.277848139955</v>
+        <v>44.43309703418775</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>21.24882184120878</v>
+        <v>14.518717474227</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>21.28227036133093</v>
+        <v>45.25504952071196</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>21.29289378842627</v>
+        <v>54.49681266440685</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>21.29645448880183</v>
+        <v>42.414260825864</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.31295848736837</v>
+        <v>49.88399734962093</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>21.32348507061232</v>
+        <v>54.69157371570933</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.23687161318256</v>
+        <v>20.89581189008172</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>21.29148413034566</v>
+        <v>40.23954583828171</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>21.31266936188217</v>
+        <v>54.80243243527801</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>21.19993645070635</v>
+        <v>14.32159651388968</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>21.28928340463844</v>
+        <v>31.58537772024339</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>21.30464604152781</v>
+        <v>39.51504983874044</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>21.20784487751204</v>
+        <v>11.09337065965134</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>21.26848619943707</v>
+        <v>36.03415696494875</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>21.29364610972747</v>
+        <v>45.89470679636852</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.24494624126301</v>
+        <v>11.87638719064659</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.29658905304037</v>
+        <v>43.18601594639942</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>21.28368083211321</v>
+        <v>32.55031188236863</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.27799369440369</v>
+        <v>23.14034699816604</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.31075026952304</v>
+        <v>31.78590582722953</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.3255419410114</v>
+        <v>35.65510642072899</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.19650000845357</v>
+        <v>9.299872361826727</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>21.28563713614633</v>
+        <v>24.09794185340591</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>21.31601618219888</v>
+        <v>32.01893700472877</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>21.17576446557948</v>
+        <v>17.79736658884194</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>21.28268039921449</v>
+        <v>27.5560538889349</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>21.30142770162496</v>
+        <v>34.6467535623254</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.16835086534314</v>
+        <v>3.726712948135681</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>21.24111412271155</v>
+        <v>20.1425046802881</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.27208045317684</v>
+        <v>27.71960542135675</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>21.22465425522982</v>
+        <v>6.748673685394046</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>21.28674418494027</v>
+        <v>30.33163530411916</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>21.30716676342715</v>
+        <v>39.6209455186031</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>21.32297807557273</v>
+        <v>34.30240450550888</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>21.35882904901004</v>
+        <v>44.59187657197058</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.37884564722536</v>
+        <v>50.35588290165072</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>21.21970698523599</v>
+        <v>10.65585071536493</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.32745896078626</v>
+        <v>29.97851721362414</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>21.36414140285188</v>
+        <v>41.74507761144537</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>21.34956689124497</v>
+        <v>57.54656635877051</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>21.37213966212319</v>
+        <v>55.62464884823977</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.41024406315333</v>
+        <v>63.16679127829287</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>21.42503568156451</v>
+        <v>65.28498361158854</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>21.27475204363139</v>
+        <v>29.64879761141864</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.38739106245653</v>
+        <v>60.55442534334028</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.41655035005817</v>
+        <v>65.29826549361348</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>21.22342772599337</v>
+        <v>25.78089772106862</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>21.35063680720963</v>
+        <v>46.06765741230983</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>21.36810668603463</v>
+        <v>49.14265309422372</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>21.23352793937996</v>
+        <v>17.01697051638114</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>21.32484068412743</v>
+        <v>49.45588784922739</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>21.35502199192421</v>
+        <v>52.07162424691777</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>21.29524039554951</v>
+        <v>25.26397978941236</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>21.3729619756709</v>
+        <v>63.58974609908125</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>21.39232356959528</v>
+        <v>68.18970183515965</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>21.44378200457082</v>
+        <v>76.55361715634548</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>21.48520146374852</v>
+        <v>84.09522407067281</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>21.50533420984968</v>
+        <v>87.35172728476009</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>21.32230150475123</v>
+        <v>39.77289955578811</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>21.45619859321728</v>
+        <v>76.20618085826533</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>21.49130436965495</v>
+        <v>82.23908625658702</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>21.34758172567142</v>
+        <v>57.98789385074261</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.37071348879957</v>
+        <v>53.89165762079752</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>21.40849168561887</v>
+        <v>60.7171458419346</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.42366773794583</v>
+        <v>64.43064544150289</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.27310698133421</v>
+        <v>25.11716726458533</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>21.38676983797836</v>
+        <v>59.47130699829924</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>21.41610277004511</v>
+        <v>65.59710436596413</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>21.22203025331296</v>
+        <v>20.96452577554997</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>21.34852829845194</v>
+        <v>43.76298315543598</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.36614134314538</v>
+        <v>47.56343048462521</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.23655221167627</v>
+        <v>14.4193688238545</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.32861396712577</v>
+        <v>50.1246642030198</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>21.35865178333539</v>
+        <v>53.71265845940241</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>21.29678801961025</v>
+        <v>23.37006923902963</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>21.37507801347774</v>
+        <v>64.58335627721384</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.39449239697825</v>
+        <v>69.99425634178499</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>21.44723481256343</v>
+        <v>78.54503114163714</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>21.48830466732064</v>
+        <v>85.18315726462329</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.50864789950837</v>
+        <v>89.71879562209003</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.3259728359277</v>
+        <v>37.76605540001249</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>21.46070196157308</v>
+        <v>78.44698452156362</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>21.49569522570939</v>
+        <v>85.38565063757078</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>21.31315640476823</v>
+        <v>53.81761721121853</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.31628126921972</v>
+        <v>37.79489693856426</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>21.34737667127994</v>
+        <v>46.56773243883706</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.36253554682812</v>
+        <v>53.83615108656203</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.23775431581981</v>
+        <v>16.37460331214941</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>21.32669929848651</v>
+        <v>46.66852813800863</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>21.35642666296784</v>
+        <v>57.14619030914604</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.21166016427653</v>
+        <v>19.55702555649273</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.31373084468241</v>
+        <v>40.43827112562512</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>21.33216649456504</v>
+        <v>48.73256256471308</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.21949164517677</v>
+        <v>15.13187131102728</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.29199105322277</v>
+        <v>46.2802634477068</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>21.32155229357365</v>
+        <v>55.48889981858773</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.26809117044461</v>
+        <v>20.52468023901414</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>21.32978243226207</v>
+        <v>57.76289226878144</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>21.34962047168818</v>
+        <v>68.47141955730675</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>21.37603978702457</v>
+        <v>63.63560836540371</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>21.41010034308317</v>
+        <v>73.81611435904027</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>21.42993309716676</v>
+        <v>82.52098953099069</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>21.27739910271868</v>
+        <v>27.46373810749561</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>21.38396229840275</v>
+        <v>64.98709727063516</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>21.41918421521599</v>
+        <v>78.0708573267033</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.32770567080012</v>
+        <v>10.32770567080018</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.53739457419933</v>
+        <v>16.53739457419934</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.06716737554236</v>
+        <v>25.06716737554241</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.920422736549519</v>
+        <v>-1.92042273654954</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.12272117800199</v>
+        <v>15.122721178002</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.22364124650923</v>
+        <v>21.22364124650932</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.703733505621244</v>
+        <v>4.703733505621258</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.19237665820457</v>
+        <v>26.19237665820459</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.75361456928132</v>
+        <v>33.75361456928138</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>19.90251828812131</v>
+        <v>19.90251828812139</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.46186814816602</v>
+        <v>26.46186814816603</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.77393604223142</v>
+        <v>28.77393604223133</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.01549424404557</v>
+        <v>12.01549424404551</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.66474564966801</v>
+        <v>18.66474564966802</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.6319622301273</v>
+        <v>31.63196223012731</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.28027162888203</v>
+        <v>14.28027162888216</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.98471366602446</v>
+        <v>22.98471366602439</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.00601070430531</v>
+        <v>29.00601070430525</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.63438993427647</v>
+        <v>-2.63438993427652</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.61812224634455</v>
+        <v>10.61812224634454</v>
       </c>
     </row>
     <row r="22">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.465315005179054</v>
+        <v>-1.465315005179026</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.45185530541563</v>
+        <v>19.45185530541564</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.38099747872007</v>
+        <v>12.38099747872019</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.63360084840974</v>
+        <v>27.63360084840987</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.28271449029631</v>
+        <v>32.28271449029633</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.282985968003313</v>
+        <v>2.282985968003327</v>
       </c>
     </row>
     <row r="29">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.04397807631971</v>
+        <v>34.04397807631975</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.14235518348808</v>
+        <v>12.14235518348812</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>45.56738639833306</v>
+        <v>45.56738639833301</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.13050888358541</v>
+        <v>49.13050888358551</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48.08775590966737</v>
+        <v>48.08775590966751</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>55.90046821620776</v>
+        <v>55.90046821620783</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>57.31678668567103</v>
+        <v>57.31678668567101</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.51090334392668</v>
+        <v>26.5109033439268</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>47.69971396067295</v>
+        <v>47.69971396067294</v>
       </c>
     </row>
     <row r="39">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.93237566371297</v>
+        <v>18.93237566371306</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.64493947444309</v>
+        <v>37.64493947444313</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.86828663212189</v>
+        <v>41.86828663212194</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.713458558109519</v>
+        <v>5.713458558109465</v>
       </c>
     </row>
     <row r="44">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>39.00852500564622</v>
+        <v>39.00852500564628</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>12.83717830307401</v>
+        <v>12.83717830307395</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>47.56767136042838</v>
+        <v>47.56767136042845</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.269428994927189</v>
+        <v>6.269428994927331</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.9573777375963</v>
+        <v>22.95737773759635</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.20846016046418</v>
+        <v>28.20846016046419</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.6004628608975793</v>
+        <v>-0.6004628608976184</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.9095533306882</v>
+        <v>30.90955333068812</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.8031144379475</v>
+        <v>33.80311443794742</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9.112216506268307</v>
+        <v>9.112216506268457</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.03141001710895</v>
+        <v>44.03141001710905</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>48.4150392466272</v>
+        <v>48.41503924662732</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.87409089076144</v>
+        <v>48.87409089076158</v>
       </c>
     </row>
     <row r="58">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>58.85893126116937</v>
+        <v>58.85893126116947</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.97590826719462</v>
+        <v>21.97590826719457</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>46.03364224301986</v>
+        <v>46.03364224301989</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>54.41675810506669</v>
+        <v>54.41675810506673</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12.58992400278995</v>
+        <v>12.58992400278989</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.05159509549301</v>
+        <v>33.05159509549296</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.76277310829449</v>
+        <v>38.76277310829445</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.658020422041378</v>
+        <v>1.65802042204146</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.1131341035148</v>
+        <v>32.11313410351481</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>39.22722146988272</v>
+        <v>39.22722146988271</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>9.479005203797545</v>
+        <v>9.479005203797646</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.23765750096973</v>
+        <v>46.2376575009698</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2.61154443607267</v>
+        <v>2.611544436072741</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.99956842697459</v>
+        <v>15.9995684269746</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.74247890006097</v>
+        <v>25.74247890006091</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.3434434011748628</v>
+        <v>-0.3434434011748593</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.09752814533667</v>
+        <v>26.09752814533656</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>34.24315358728819</v>
+        <v>34.24315358728813</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6.060556611692213</v>
+        <v>6.060556611692185</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.3457244815539</v>
+        <v>36.34572448155381</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.67331249108787</v>
+        <v>45.67331249108802</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.57209802922667</v>
+        <v>35.57209802922679</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.8818267208255</v>
+        <v>42.88182672082561</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>47.89964122407305</v>
+        <v>47.89964122407315</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>14.014481143559</v>
+        <v>14.01448114355882</v>
       </c>
     </row>
     <row r="84">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>47.58540131562508</v>
+        <v>47.58540131562523</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.01602040533605</v>
+        <v>10.01602040533616</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.68592690667314</v>
+        <v>27.68592690667305</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.76547513608498</v>
+        <v>36.76547513608512</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.321989339197575</v>
+        <v>2.321989339197636</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.48924905736414</v>
+        <v>27.48924905736415</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.65487893143844</v>
+        <v>38.65487893143842</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.468215881413332</v>
+        <v>5.468215881413276</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.52182640250141</v>
+        <v>37.52182640250128</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.62923444143927</v>
+        <v>27.62923444143924</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.19744154440009</v>
+        <v>18.19744154440031</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.54079855067013</v>
+        <v>27.54079855066995</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.73841466417361</v>
+        <v>31.73841466417354</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.776733147018</v>
+        <v>3.776733147017985</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>19.52945909219227</v>
+        <v>19.52945909219237</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.97930144537857</v>
+        <v>27.97930144537867</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.03292733084315</v>
+        <v>14.03292733084314</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.21854938722007</v>
+        <v>24.21854938722004</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.33037490557894</v>
+        <v>32.33037490557906</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-5.133522894354584</v>
+        <v>-5.133522894354741</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.5879149726335</v>
+        <v>11.58791497263352</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>20.17874126120005</v>
+        <v>20.17874126120003</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.2502745180524144</v>
+        <v>0.2502745180524357</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.65529910097821</v>
+        <v>24.65529910097819</v>
       </c>
     </row>
     <row r="109">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.71786887997745</v>
+        <v>29.71786887997754</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.72223406825302</v>
+        <v>40.72223406825294</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.97298917891957</v>
+        <v>46.97298917891938</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.114253161504042</v>
+        <v>5.114253161504084</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.64037926019654</v>
+        <v>25.64037926019653</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.42354732422352</v>
+        <v>38.42354732422346</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.03337395418322</v>
+        <v>54.03337395418336</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>52.17367378911923</v>
+        <v>52.17367378911938</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.51005774104034</v>
+        <v>60.5100577410403</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>63.04920646286719</v>
+        <v>63.04920646286725</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.85389690001025</v>
+        <v>24.85389690001049</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>57.7638784653329</v>
+        <v>57.76387846533297</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>63.18802418410093</v>
+        <v>63.18802418410094</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.36575233737517</v>
+        <v>22.36575233737522</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.7499184759582</v>
+        <v>43.74991847595818</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>48.00533487500382</v>
+        <v>48.00533487500371</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>8.977058359470622</v>
+        <v>8.977058359470604</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.70634565228242</v>
+        <v>42.70634565228244</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.50594900319219</v>
+        <v>46.50594900319221</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>20.01964097407157</v>
+        <v>20.0196409740716</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>60.07224976654608</v>
+        <v>60.07224976654613</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.90722389816969</v>
+        <v>65.90722389816966</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>74.5280498033182</v>
+        <v>74.52804980331837</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.8747277598837</v>
+        <v>82.87472775988364</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>86.6495250933655</v>
+        <v>86.64952509336564</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>35.95907930021348</v>
+        <v>35.95907930021352</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>74.79680701476393</v>
+        <v>74.796807014764</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>81.88903041892162</v>
+        <v>81.88903041892169</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>54.45483186986621</v>
+        <v>54.45483186986617</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50.178529378368</v>
+        <v>50.1785293783681</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>57.76037556893838</v>
+        <v>57.76037556893854</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>62.06743384861133</v>
+        <v>62.06743384861137</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.95701658178536</v>
+        <v>19.9570165817853</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>56.42067215031945</v>
+        <v>56.42067215031956</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>63.45323630620261</v>
+        <v>63.45323630620274</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.20854792128696</v>
+        <v>17.2085479212871</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>41.21116745384268</v>
+        <v>41.21116745384277</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>46.3503544953357</v>
+        <v>46.35035449533579</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6.289199032520138</v>
+        <v>6.289199032520088</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.44207025384812</v>
+        <v>43.44207025384816</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.40409393957636</v>
+        <v>48.40409393957646</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>18.02537590559876</v>
+        <v>18.02537590559875</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.09687938821518</v>
+        <v>61.09687938821529</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>67.91781494515806</v>
+        <v>67.91781494515809</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>76.56019751358001</v>
+        <v>76.56019751358005</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>83.99785793975087</v>
+        <v>83.99785793975084</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>89.20307601060928</v>
+        <v>89.20307601060937</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.77903103143201</v>
+        <v>33.77903103143216</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>77.08830464605239</v>
+        <v>77.08830464605242</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>85.28298666838242</v>
+        <v>85.28298666838248</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>49.4829651209438</v>
+        <v>49.48296512094374</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.84426177866913</v>
+        <v>32.8442617786692</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.29968519318375</v>
+        <v>42.29968519318371</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50.31887428729799</v>
+        <v>50.31887428729806</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.54705911410735</v>
+        <v>10.54705911410725</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.38725623732635</v>
+        <v>42.38725623732623</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.95136561305949</v>
+        <v>53.95136561305939</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>15.46395220829332</v>
+        <v>15.46395220829346</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.27181739605149</v>
+        <v>37.27181739605143</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.02780772897697</v>
+        <v>47.027807728977</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.45324506288868</v>
+        <v>6.453245062888634</v>
       </c>
     </row>
     <row r="171">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>49.33289545815551</v>
+        <v>49.33289545815555</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>14.32910065844658</v>
+        <v>14.32910065844649</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>53.0141148900908</v>
+        <v>53.01411489009075</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>65.2975009881041</v>
+        <v>65.29750098810405</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.05272357339904</v>
+        <v>60.05272357339909</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.00476548592172</v>
+        <v>71.00476548592174</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>80.63503746126045</v>
+        <v>80.63503746126044</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.25925153992485</v>
+        <v>22.25925153992479</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>61.91583258075644</v>
+        <v>61.91583258075637</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.55498687728998</v>
+        <v>76.55498687728985</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>12.19383589485787</v>
+        <v>12.193835894858</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.77819294738589</v>
+        <v>19.77819294738576</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.74039116363684</v>
+        <v>27.74039116363671</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.142179838226003</v>
+        <v>2.142179838225982</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.90920678416038</v>
+        <v>19.90920678416044</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.28712009790734</v>
+        <v>24.28712009790729</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>9.195115505425022</v>
+        <v>9.195115505424784</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.49352427850692</v>
+        <v>31.49352427850685</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.49921034278017</v>
+        <v>37.49921034278034</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.21312228423342</v>
+        <v>23.21312228423348</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.48516703754564</v>
+        <v>29.48516703754566</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.79161187375326</v>
+        <v>30.79161187375336</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>8.782243182041572</v>
+        <v>8.782243182041446</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.98818139955286</v>
+        <v>16.98818139955262</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.43082531877221</v>
+        <v>26.43082531877189</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.37646493734666</v>
+        <v>12.37646493734659</v>
       </c>
     </row>
     <row r="198">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.20666547944745</v>
+        <v>29.20666547944739</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-4.026865372188734</v>
+        <v>-4.026865372189018</v>
       </c>
     </row>
     <row r="201">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1.922811980859912</v>
+        <v>1.922811980859692</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.40588802305021</v>
+        <v>26.40588802305006</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>14.12372005975929</v>
+        <v>14.12372005975931</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.95275005599867</v>
+        <v>29.95275005599862</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.86304111290741</v>
+        <v>34.86304111290717</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>6.335833193842355</v>
+        <v>6.335833193842227</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.97229138428285</v>
+        <v>35.9722913842828</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.94888525069187</v>
+        <v>36.9488852506917</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>16.10870506254973</v>
+        <v>16.1087050625496</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>49.40440363833157</v>
+        <v>49.40440363833142</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>52.20202563485195</v>
+        <v>52.20202563485185</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.95482873271973</v>
+        <v>46.95482873271975</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.09856853486186</v>
+        <v>54.0985685348619</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>55.41322845207565</v>
+        <v>55.41322845207582</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>18.39314937655524</v>
+        <v>18.39314937655526</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.31659631494425</v>
+        <v>40.31659631494427</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45.47562045013272</v>
+        <v>45.4756204501327</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>13.74539646744868</v>
+        <v>13.74539646744877</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>34.86294749502392</v>
+        <v>34.862947495024</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>38.89607469991409</v>
+        <v>38.89607469991407</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.936039888389562</v>
+        <v>0.9360398883897574</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.85880319826201</v>
+        <v>31.85880319826219</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>36.14761398140261</v>
+        <v>36.14761398140287</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.71150679127485</v>
+        <v>11.71150679127487</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>48.94557644434869</v>
+        <v>48.94557644434842</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.724561135814493</v>
+        <v>8.724561135814501</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.79483447319069</v>
+        <v>25.79483447319055</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.32154140795192</v>
+        <v>31.32154140795175</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3.92188881396504</v>
+        <v>3.921888813964873</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.01407045124284</v>
+        <v>35.01407045124279</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.93924174812238</v>
+        <v>36.93924174812228</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>13.47148776798135</v>
+        <v>13.47148776798129</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.03719514331656</v>
+        <v>48.03719514331645</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.65873315132625</v>
+        <v>51.65873315132617</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>47.27305260264554</v>
+        <v>47.27305260264546</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>53.89704487229457</v>
+        <v>53.89704487229446</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>56.49644183021826</v>
+        <v>56.49644183021817</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.59527286499739</v>
+        <v>13.59527286499726</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.18235499018211</v>
+        <v>38.18235499018194</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.00683017490977</v>
+        <v>44.00683017490965</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>7.987072634855098</v>
+        <v>7.987072634854972</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.47355911601576</v>
+        <v>30.47355911601568</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.93018768528306</v>
+        <v>35.93018768528298</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-2.791107964641501</v>
+        <v>-2.791107964641427</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.02703716727482</v>
+        <v>30.0270371672747</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.10175242871271</v>
+        <v>36.10175242871274</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>8.346344496779837</v>
+        <v>8.346344496779878</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>47.18336672657012</v>
+        <v>47.18336672657007</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>5.804362564940188</v>
+        <v>5.804362564940146</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.81649587376917</v>
+        <v>19.81649587376905</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.23278346435099</v>
+        <v>29.23278346435067</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.15674126526477</v>
+        <v>4.156741265264834</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30.44249701056216</v>
+        <v>30.44249701056215</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.90394581086424</v>
+        <v>36.9039458108642</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10.9086754283388</v>
+        <v>10.90867542833888</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>41.1023734881614</v>
+        <v>41.10237348816138</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>49.0087109086807</v>
+        <v>49.00871090868061</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>37.19951187601156</v>
+        <v>37.19951187601132</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43.93492748614837</v>
+        <v>43.9349274861482</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.11521735343421</v>
+        <v>48.11521735343401</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.154161893521964</v>
+        <v>9.154161893521886</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.05154004603625</v>
+        <v>29.05154004603634</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.10662619621718</v>
+        <v>40.10662619621714</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.078877519736675</v>
+        <v>6.078877519736579</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.99809773663376</v>
+        <v>25.99809773663371</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.57204905384006</v>
+        <v>33.57204905384001</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2.507425940998566</v>
+        <v>-2.507425940998637</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.06713765862272</v>
+        <v>25.06713765862257</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>33.66932167628644</v>
+        <v>33.66932167628629</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4.614089634937734</v>
+        <v>4.614089634937812</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>38.8587534483182</v>
+        <v>38.8587534483181</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.785354767198</v>
+        <v>32.78535476719775</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.31126139765464</v>
+        <v>22.31126139765455</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.52103911637823</v>
+        <v>33.52103911637801</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.67432471643473</v>
+        <v>37.67432471643465</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.533849425032955</v>
+        <v>4.533849425032699</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.74417456527087</v>
+        <v>23.74417456527071</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.90840461212907</v>
+        <v>29.90840461212868</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.75899382549734</v>
+        <v>13.75899382549715</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.26702756816918</v>
+        <v>28.26702756816919</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.50217306713742</v>
+        <v>36.50217306713748</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-7.341212277163663</v>
+        <v>-7.34121227716377</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>14.61069622926795</v>
+        <v>14.61069622926797</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.36863269295845</v>
+        <v>22.36863269295849</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.930454509820223</v>
+        <v>3.930454509820215</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.07104140097181</v>
+        <v>33.07104140097188</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>42.66911889431671</v>
+        <v>42.66911889431684</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.55100201208458</v>
+        <v>34.55100201208462</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.73418957138907</v>
+        <v>45.73418957138905</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52.77862920866092</v>
+        <v>52.77862920866086</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>4.958083384131747</v>
+        <v>4.958083384131655</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.80600026345888</v>
+        <v>30.80600026345868</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>41.62621642150516</v>
+        <v>41.62621642150494</v>
       </c>
     </row>
     <row r="296">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.93223740291312</v>
+        <v>48.93223740291319</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>58.58787570859568</v>
+        <v>58.5878757085956</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>62.70559811979098</v>
+        <v>62.70559811979084</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.1565145246618</v>
+        <v>18.15651452466181</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>54.04109707535608</v>
+        <v>54.04109707535623</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>58.22687654257162</v>
+        <v>58.22687654257175</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>18.36847121588648</v>
+        <v>18.36847121588653</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>43.1610855233905</v>
+        <v>43.16108552339046</v>
       </c>
     </row>
     <row r="305">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>2.679519855756169</v>
+        <v>2.679519855756116</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.8219823823835</v>
+        <v>40.82198238238347</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.4783785486526</v>
+        <v>44.47837854865264</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>18.81446661862081</v>
+        <v>18.81446661862076</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.65699928496349</v>
+        <v>62.65699928496328</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.44350496283587</v>
+        <v>68.44350496283577</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>71.20725705232501</v>
+        <v>71.20725705232525</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>79.8430547118929</v>
+        <v>79.84305471189282</v>
       </c>
     </row>
     <row r="314">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.74390809974963</v>
+        <v>27.74390809974958</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.66697671685449</v>
+        <v>71.66697671685458</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>77.3698192223048</v>
+        <v>77.36981922230497</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>54.59591773359176</v>
+        <v>54.59591773359178</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>46.12933850395528</v>
+        <v>46.12933850395525</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>54.83896903201437</v>
+        <v>54.83896903201425</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>60.74735016470385</v>
+        <v>60.7473501647039</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.51574113161999</v>
+        <v>12.51574113162</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>51.57379515523813</v>
+        <v>51.57379515523805</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>57.25014418673009</v>
+        <v>57.25014418673013</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.27958930960592</v>
+        <v>13.27958930960598</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>40.40144521404742</v>
+        <v>40.40144521404731</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.34145414186127</v>
+        <v>46.34145414186132</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.08072820017952154</v>
+        <v>0.08072820017945048</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>41.37503488576202</v>
+        <v>41.37503488576207</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>45.92736077141264</v>
+        <v>45.92736077141272</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.60192190127324</v>
+        <v>16.60192190127328</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>63.15552209869038</v>
+        <v>63.15552209869026</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>69.7471511846021</v>
+        <v>69.7471511846022</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>72.20152343345185</v>
+        <v>72.20152343345177</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>80.00334141276844</v>
+        <v>80.00334141276841</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>87.25317283331854</v>
+        <v>87.25317283331839</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.59182033883685</v>
+        <v>24.5918203388368</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>72.85039307059053</v>
+        <v>72.85039307059044</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>79.46357644365553</v>
+        <v>79.46357644365574</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>48.66150661310846</v>
+        <v>48.66150661310831</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.06404039858256</v>
+        <v>31.06404039858248</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>41.8841427337281</v>
+        <v>41.88414273372815</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.95248672661172</v>
+        <v>49.95248672661161</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.674039326389163</v>
+        <v>5.674039326388954</v>
       </c>
     </row>
     <row r="345">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.50544674048997</v>
+        <v>48.50544674048991</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.66656354075245</v>
+        <v>12.6665635407526</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.94661133140858</v>
+        <v>37.94661133140856</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>47.71866727607594</v>
+        <v>47.71866727607596</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.94390893971023</v>
+        <v>0.9439089397101164</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.46660330110997</v>
+        <v>37.4666033011099</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>46.88882779906581</v>
+        <v>46.88882779906591</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14.14661323725306</v>
+        <v>14.14661323725302</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>56.63024270436257</v>
+        <v>56.63024270436242</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>67.84884851187184</v>
+        <v>67.84884851187181</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>59.50301168755541</v>
+        <v>59.50301168755555</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>70.56821845221012</v>
+        <v>70.56821845220995</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>81.04233377640391</v>
+        <v>81.04233377640367</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.90502232610496</v>
+        <v>16.90502232610477</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>61.35373795735907</v>
+        <v>61.35373795735904</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>73.74606789025984</v>
+        <v>73.74606789025972</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.615121008552237</v>
+        <v>9.615121008552169</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.14148308504997</v>
+        <v>19.14148308504986</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.95843753312799</v>
+        <v>27.95843753312793</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.85569157597681</v>
+        <v>-1.855691575976895</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.23116706771883</v>
+        <v>19.23116706771876</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.56772467187948</v>
+        <v>25.56772467187945</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6.77438495012721</v>
+        <v>6.774384950127203</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>32.15609452125612</v>
+        <v>32.15609452125618</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>39.86896534542537</v>
+        <v>39.86896534542541</v>
       </c>
     </row>
     <row r="371">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.96687872015276</v>
+        <v>30.96687872015272</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.0137606926841</v>
+        <v>33.01376069268406</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>11.27171060526153</v>
+        <v>11.2717106052615</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.03575164228508</v>
+        <v>21.03575164228511</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.69226361311965</v>
+        <v>33.69226361311971</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18.01304788927597</v>
+        <v>18.01304788927575</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.8093916545359</v>
+        <v>30.80939165453564</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.29399531646814</v>
+        <v>35.29399531646824</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.1100759116913856</v>
+        <v>0.1100759116912862</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>18.62171624516349</v>
+        <v>18.62171624516336</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.94804693672851</v>
+        <v>23.94804693672845</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>5.047160949048241</v>
+        <v>5.047160949048031</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.95685040565777</v>
+        <v>30.95685040565768</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>13.51202071284928</v>
+        <v>13.51202071284944</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>32.41082047670822</v>
+        <v>32.41082047670815</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.13354993567504</v>
+        <v>37.13354993567513</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.918953417141701</v>
+        <v>3.918953417141712</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.20383825787601</v>
+        <v>38.20383825787594</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>40.0591992207971</v>
+        <v>40.05919922079708</v>
       </c>
     </row>
     <row r="391">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>53.78879267642493</v>
+        <v>53.78879267642498</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>57.26817775476385</v>
+        <v>57.2681777547639</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>52.95086575468078</v>
+        <v>52.95086575468073</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>61.7313289494736</v>
+        <v>61.73132894947351</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>62.83274717912887</v>
+        <v>62.83274717912877</v>
       </c>
     </row>
     <row r="397">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>50.92110319693948</v>
+        <v>50.92110319693947</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>58.20939638628755</v>
+        <v>58.20939638628765</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>23.71292013451861</v>
+        <v>23.71292013451862</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>46.71260126318887</v>
+        <v>46.71260126318876</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>48.99009118998625</v>
+        <v>48.99009118998617</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.882646062388506</v>
+        <v>8.882646062388392</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>42.60471136349422</v>
+        <v>42.60471136349414</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.49010206021661</v>
+        <v>45.4901020602165</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>20.00678691700865</v>
+        <v>20.00678691700863</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>59.96675245086087</v>
+        <v>59.96675245086092</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.000767293473471</v>
+        <v>8.000767293473535</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.39251202515909</v>
+        <v>28.39251202515894</v>
       </c>
     </row>
     <row r="410">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.65656179383015</v>
+        <v>1.656561793830051</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>37.65540725449276</v>
+        <v>37.65540725449284</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>40.34678853899651</v>
+        <v>40.34678853899649</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.74681449939925</v>
+        <v>13.74681449939917</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>52.937400638753</v>
+        <v>52.93740063875293</v>
       </c>
     </row>
     <row r="416">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>54.34492353725299</v>
+        <v>54.344923537253</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.66936387489224</v>
+        <v>62.66936387489218</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>64.92163837146991</v>
+        <v>64.92163837147007</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.20174616849674</v>
+        <v>22.20174616849669</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>49.84055623982844</v>
+        <v>49.84055623982841</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>57.62941920486245</v>
+        <v>57.62941920486249</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.71176055620048</v>
+        <v>17.71176055620045</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>42.50637807261982</v>
+        <v>42.50637807261985</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>46.09493399338285</v>
+        <v>46.09493399338288</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>5.1164136403161</v>
+        <v>5.116413640315955</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>41.19309384117466</v>
+        <v>41.1930938411747</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>45.79511247110578</v>
+        <v>45.79511247110585</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>16.87445072956322</v>
+        <v>16.87445072956312</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>58.8971535563163</v>
+        <v>58.89715355631637</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.273807230069099</v>
+        <v>4.273807230069021</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.22611909874563</v>
+        <v>21.22611909874547</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.10648556350389</v>
+        <v>31.10648556350373</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.083587964567222</v>
+        <v>2.083587964567204</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.86062139243271</v>
+        <v>32.86062139243265</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>40.98753744589035</v>
+        <v>40.98753744589043</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.73331908309628</v>
+        <v>10.73331908309615</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.16267448715001</v>
+        <v>45.16267448714989</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>54.42996142551343</v>
+        <v>54.42996142551348</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>41.54315875167362</v>
+        <v>41.54315875167359</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>49.93539178974626</v>
+        <v>49.93539178974623</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>54.52967458858623</v>
+        <v>54.5296745885861</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.11321181648627</v>
+        <v>15.11321181648618</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>37.69873589966531</v>
+        <v>37.69873589966525</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>51.62491450416833</v>
+        <v>51.62491450416834</v>
       </c>
     </row>
     <row r="446">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.76220960458028</v>
+        <v>36.76220960458012</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>43.83671422474914</v>
+        <v>43.8367142247491</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.744981493888584</v>
+        <v>5.744981493888538</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>36.46338458577921</v>
+        <v>36.46338458577922</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>45.29050917724583</v>
+        <v>45.29050917724587</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.73909896169519</v>
+        <v>12.73909896169508</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>50.02520216443176</v>
+        <v>50.02520216443168</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.49150602237688</v>
+        <v>37.49150602237681</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.07106524053611</v>
+        <v>29.07106524053606</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>40.09364399001497</v>
+        <v>40.0936439900149</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>43.80925283939474</v>
+        <v>43.80925283939472</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.04018788583476</v>
+        <v>12.0401878858347</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.30994364061746</v>
+        <v>32.30994364061745</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>39.10614712219881</v>
+        <v>39.10614712219882</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.88394506037341</v>
+        <v>16.88394506037331</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.83039058802942</v>
+        <v>30.83039058802932</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.3572997796337</v>
+        <v>37.35729977963351</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-5.398699647170158</v>
+        <v>-5.398699647170169</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>16.1802135960891</v>
+        <v>16.18021359608912</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>23.03563625500381</v>
+        <v>23.03563625500378</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>3.343703607933755</v>
+        <v>3.343703607933627</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.32203059746595</v>
+        <v>32.32203059746594</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>40.99155120966839</v>
+        <v>40.99155120966837</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.89701760371741</v>
+        <v>35.89701760371739</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>48.16321799175086</v>
+        <v>48.16321799175071</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>53.60929199106097</v>
+        <v>53.60929199106081</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.841173229033732</v>
+        <v>8.84117322903359</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.98500688310617</v>
+        <v>33.98500688310608</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.43545428481561</v>
+        <v>44.43545428481551</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.29543814249593</v>
+        <v>64.29543814249595</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>63.47463036157723</v>
+        <v>63.47463036157725</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>73.28056021549006</v>
+        <v>73.28056021548994</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>75.33610781850447</v>
+        <v>75.33610781850439</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.14002514477328</v>
+        <v>33.14002514477322</v>
       </c>
     </row>
     <row r="481">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>74.12015930143991</v>
+        <v>74.12015930144013</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.32254402794108</v>
+        <v>24.3225440279411</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>49.60806709119989</v>
+        <v>49.60806709119996</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>51.73901956261442</v>
+        <v>51.73901956261439</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>7.419648655389382</v>
+        <v>7.419648655389407</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>46.23859083962073</v>
+        <v>46.23859083962072</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.57659800715922</v>
+        <v>47.57659800715915</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.63380951662618</v>
+        <v>21.6338095166261</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>66.42036592005289</v>
+        <v>66.42036592005307</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>69.91243860986324</v>
+        <v>69.91243860986337</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>79.02441326598685</v>
+        <v>79.02441326598696</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>88.46707719164161</v>
+        <v>88.46707719164165</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>91.34392960251158</v>
+        <v>91.34392960251169</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>37.78957343261381</v>
+        <v>37.78957343261376</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>81.56795094992989</v>
+        <v>81.56795094992988</v>
       </c>
     </row>
     <row r="497">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>64.76139152841677</v>
+        <v>64.76139152841685</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>61.65735161419089</v>
+        <v>61.65735161419109</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>70.66782486327043</v>
+        <v>70.66782486327038</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>74.37520976251761</v>
+        <v>74.37520976251766</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.33498869636983</v>
+        <v>28.33498869636981</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>69.70778443838361</v>
+        <v>69.70778443838371</v>
       </c>
     </row>
     <row r="504">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>19.11900413261274</v>
+        <v>19.11900413261277</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>47.0168516473034</v>
+        <v>47.01685164730345</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>49.84096628353742</v>
+        <v>49.84096628353743</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>4.756795375377731</v>
+        <v>4.756795375377699</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>46.99649716451288</v>
+        <v>46.99649716451285</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>49.22916431320645</v>
+        <v>49.22916431320641</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>19.56211247581079</v>
+        <v>19.56211247581089</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>67.35073429402425</v>
+        <v>67.35073429402439</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>71.60050697920539</v>
+        <v>71.60050697920556</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>80.97243535981696</v>
+        <v>80.97243535981713</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>89.46831786524783</v>
+        <v>89.46831786524771</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>93.62713870899617</v>
+        <v>93.62713870899604</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.52564718848598</v>
+        <v>35.52564718848589</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>83.80692788285896</v>
+        <v>83.80692788285916</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>88.68336188125473</v>
+        <v>88.68336188125475</v>
       </c>
     </row>
     <row r="520">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>44.5166131474946</v>
+        <v>44.51661314749447</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>55.6007498109389</v>
+        <v>55.60074981093877</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>62.88343272416981</v>
+        <v>62.88343272416959</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.32338476888989</v>
+        <v>19.32338476888978</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>55.96432753378113</v>
+        <v>55.964327533781</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>65.2563793875957</v>
+        <v>65.25637938759569</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.54413673579145</v>
+        <v>18.54413673579132</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>44.20089821324072</v>
+        <v>44.20089821324058</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>51.87273401525916</v>
+        <v>51.87273401525912</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.335254517137258</v>
+        <v>6.335254517137201</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>43.48362234490401</v>
+        <v>43.48362234490391</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>51.79474179049652</v>
+        <v>51.79474179049654</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>17.53714204605775</v>
+        <v>17.53714204605764</v>
       </c>
     </row>
     <row r="534">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>70.86856122053925</v>
+        <v>70.86856122053935</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>66.48016805006762</v>
+        <v>66.48016805006775</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.63138261906657</v>
+        <v>78.63138261906639</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>87.07088747382555</v>
+        <v>87.07088747382548</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.18174215509388</v>
+        <v>26.18174215509378</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>70.67198036890517</v>
+        <v>70.67198036890512</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>82.29349966565445</v>
+        <v>82.29349966565442</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.92333296679958</v>
+        <v>10.92333296679956</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.20167206052807</v>
+        <v>13.20167206052795</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.08434068059928</v>
+        <v>19.08434068059919</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.3219807251251865</v>
+        <v>0.3219807251251545</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.60027449039894</v>
+        <v>9.600274490398766</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.40315718457782</v>
+        <v>12.40315718457791</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.428484971855202</v>
+        <v>4.428484971855244</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.42946548793478</v>
+        <v>18.42946548793474</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.7742067264917</v>
+        <v>22.77420672649166</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.15520835161466</v>
+        <v>13.15520835161464</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>17.34175593925007</v>
+        <v>17.34175593924996</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>18.41833108209897</v>
+        <v>18.4183310820989</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.071184110419008</v>
+        <v>5.071184110418976</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.352971801487771</v>
+        <v>8.352971801487637</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>14.43798304460576</v>
+        <v>14.43798304460563</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.53285135961017</v>
+        <v>11.5328513596102</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.75877872593717</v>
+        <v>17.7587787259371</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.97040600524223</v>
+        <v>22.97040600524217</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.711848224450851</v>
+        <v>-1.711848224451174</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.072656590233166</v>
+        <v>7.072656590233189</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.82613110559903</v>
+        <v>12.82613110559896</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.8795812967712813</v>
+        <v>0.8795812967712742</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.81541288560121</v>
+        <v>16.81541288560104</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.09154911937834</v>
+        <v>12.09154911937836</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.75070065350921</v>
+        <v>21.75070065350905</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.16006453416145</v>
+        <v>25.16006453416141</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.926271442611295</v>
+        <v>3.926271442611366</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.78049543221856</v>
+        <v>23.78049543221842</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.87427320884047</v>
+        <v>23.87427320884046</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.18846061650814</v>
+        <v>10.1884606165082</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.01000834015848</v>
+        <v>34.01000834015861</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.76855925403358</v>
+        <v>35.76855925403349</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.10356028765059</v>
+        <v>33.10356028765063</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.14793285301475</v>
+        <v>38.14793285301464</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.65386413792764</v>
+        <v>39.65386413792763</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.82103274730584</v>
+        <v>12.82103274730579</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.34279640259212</v>
+        <v>28.3427964025921</v>
       </c>
     </row>
     <row r="579">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>12.34959682260514</v>
+        <v>12.34959682260518</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.69584436559641</v>
+        <v>26.69584436559628</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.95169454094793</v>
+        <v>31.9516945409477</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.986968432871205</v>
+        <v>2.986968432871283</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.2151622570025</v>
+        <v>24.21516225700248</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.14403038996575</v>
+        <v>30.14403038996559</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.753439482512807</v>
+        <v>9.753439482512835</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>37.12295537016562</v>
+        <v>37.12295537016563</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.34776921763353</v>
+        <v>7.347769217633569</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.05842929195414</v>
+        <v>18.05842929195423</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.18856045035012</v>
+        <v>22.18856045034999</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.732209850370111</v>
+        <v>1.73220985037004</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.84712461414451</v>
+        <v>22.84712461414462</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>23.98934101543737</v>
+        <v>23.9893410154374</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.834359289327086</v>
+        <v>7.834359289327267</v>
       </c>
     </row>
     <row r="595">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.4277243787734</v>
+        <v>35.42772437877332</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.07370925356491</v>
+        <v>33.0737092535648</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.63355732889302</v>
+        <v>37.633557328893</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.39258311843221</v>
+        <v>40.39258311843219</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>8.459357288278765</v>
+        <v>8.459357288278815</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.21084733324136</v>
+        <v>26.21084733324135</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.66491186318439</v>
+        <v>29.66491186318438</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>7.004826249112414</v>
+        <v>7.004826249112439</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.42465027115473</v>
+        <v>22.42465027115464</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.22161776589581</v>
+        <v>29.22161776589577</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-0.6961569821964773</v>
+        <v>-0.6961569821967188</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.05296014777158</v>
+        <v>22.05296014777143</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.91193855662727</v>
+        <v>29.91193855662706</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>6.465517417836889</v>
+        <v>6.465517417836942</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.11513457894149</v>
+        <v>35.11513457894145</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.793831813821779</v>
+        <v>4.793831813821743</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>12.48454319131863</v>
+        <v>12.48454319131841</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.07476008439905</v>
+        <v>20.07476008439896</v>
       </c>
     </row>
     <row r="614">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>17.90260040112178</v>
+        <v>17.90260040112175</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.07608051291472</v>
+        <v>23.07608051291469</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>5.169921851661002</v>
+        <v>5.169921851660938</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.85911021571057</v>
+        <v>25.85911021571047</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>32.36496714767394</v>
+        <v>32.36496714767382</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.9575319457788</v>
+        <v>23.95753194577866</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.44913724971262</v>
+        <v>28.4491372497125</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.37997807489772</v>
+        <v>32.37997807489779</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.516624156298604</v>
+        <v>4.516624156298626</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.77448418618859</v>
+        <v>17.77448418618863</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.73158239063588</v>
+        <v>25.73158239063597</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.253402899703794</v>
+        <v>5.253402899703861</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.86372331115444</v>
+        <v>17.86372331115434</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.37100976454872</v>
+        <v>26.3710097645486</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-1.124045636485022</v>
+        <v>-1.124045636485135</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.37194473506966</v>
+        <v>16.37194473506942</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.25609369871766</v>
+        <v>26.25609369871746</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>2.479690038142611</v>
+        <v>2.479690038142422</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.48930971792363</v>
+        <v>26.48930971792367</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.8648395140347</v>
+        <v>23.86483951403459</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>14.50856083761572</v>
+        <v>14.50856083761567</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.06956738913476</v>
+        <v>23.0695673891347</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.59215852137663</v>
+        <v>27.59215852137658</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1.482154388378369</v>
+        <v>1.482154388378298</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>13.64302102642133</v>
+        <v>13.64302102642122</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>20.01578760661749</v>
+        <v>20.01578760661746</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>13.65137388476706</v>
+        <v>13.65137388476711</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.33355336985916</v>
+        <v>22.3335533698592</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.56543030054001</v>
+        <v>30.56543030053987</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-5.207419701417884</v>
+        <v>-5.207419701417919</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>8.60089693924593</v>
+        <v>8.600896939245908</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.53301068492237</v>
+        <v>16.53301068492235</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>2.813359335719742</v>
+        <v>2.813359335719777</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.42524315129927</v>
+        <v>23.42524315129924</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.13901228003299</v>
+        <v>33.13901228003297</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.98449276729562</v>
+        <v>25.9844927672955</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.21157471151034</v>
+        <v>34.21157471151031</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.20590286812865</v>
+        <v>42.20590286812858</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>2.963975787222463</v>
+        <v>2.963975787222285</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.78112382812221</v>
+        <v>20.78112382812216</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.35200258080436</v>
+        <v>31.3520025808043</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.35707145461397</v>
+        <v>44.35707145461394</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>37.85486977985468</v>
+        <v>37.85486977985476</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.21750657499206</v>
+        <v>45.21750657499192</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.2904782950252</v>
+        <v>50.29047829502508</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.23633122615978</v>
+        <v>13.23633122615973</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.396357532199</v>
+        <v>40.39635753219901</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>45.94944953767535</v>
+        <v>45.94944953767532</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.78378288816965</v>
+        <v>18.78378288816973</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.66886557453563</v>
+        <v>36.66886557453559</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>42.86705828582086</v>
+        <v>42.86705828582073</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.288557033492104</v>
+        <v>5.288557033492015</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.50872651923982</v>
+        <v>33.50872651923983</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.64893108742152</v>
+        <v>38.64893108742158</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>17.8924081273077</v>
+        <v>17.89240812730771</v>
       </c>
     </row>
     <row r="670">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>58.70122582003317</v>
+        <v>58.70122582003295</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>60.24620817256938</v>
+        <v>60.24620817256957</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>66.38809274427229</v>
+        <v>66.38809274427221</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>73.97040947965476</v>
+        <v>73.97040947965473</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.6258885916497</v>
+        <v>24.62588859164974</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>58.56026652410744</v>
+        <v>58.56026652410747</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>65.55232692018612</v>
+        <v>65.5523269201861</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.10613895293179</v>
+        <v>44.10613895293172</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.82731498211226</v>
+        <v>34.82731498211221</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>41.32148128392466</v>
+        <v>41.32148128392461</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.1733734166116</v>
+        <v>48.17337341661155</v>
       </c>
     </row>
     <row r="682">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.66698792324489</v>
+        <v>37.66698792324499</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.89510722068578</v>
+        <v>44.89510722068595</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>14.16350324565333</v>
+        <v>14.16350324565343</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.99701385398478</v>
+        <v>33.99701385398473</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.16421170839958</v>
+        <v>41.16421170839943</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2.661783645903668</v>
+        <v>2.661783645903707</v>
       </c>
     </row>
     <row r="689">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.85947501618695</v>
+        <v>39.85947501618696</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>15.72093578476955</v>
+        <v>15.72093578476961</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>51.72458517152285</v>
+        <v>51.72458517152295</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>59.87176641972626</v>
+        <v>59.87176641972636</v>
       </c>
     </row>
     <row r="694">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>66.11438293043723</v>
+        <v>66.11438293043717</v>
       </c>
     </row>
     <row r="696">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>21.55595900409339</v>
+        <v>21.55595900409345</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>59.14502806757843</v>
+        <v>59.14502806757857</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>67.3410806323872</v>
+        <v>67.3410806323873</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>37.41940292361651</v>
+        <v>37.41940292361653</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>20.67150163843656</v>
+        <v>20.67150163843644</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.7797805418019</v>
+        <v>28.77978054180178</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.2673611960931</v>
+        <v>37.2673611960932</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1.551521838833931</v>
+        <v>1.551521838833835</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.06776881568203</v>
+        <v>26.06776881568192</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.79658686726079</v>
+        <v>35.79658686726071</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.56916883603981</v>
+        <v>12.56916883603984</v>
       </c>
     </row>
     <row r="708">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.82373571771497</v>
+        <v>40.82373571771488</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1.676066776231629</v>
+        <v>1.676066776231508</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.89413256312247</v>
+        <v>27.89413256312256</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.34490306534239</v>
+        <v>38.34490306534241</v>
       </c>
     </row>
     <row r="713">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.54998881433747</v>
+        <v>43.5499888143373</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>55.65377379524583</v>
+        <v>55.65377379524585</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>47.060953320837</v>
+        <v>47.06095332083709</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.16644008950833</v>
+        <v>55.16644008950839</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.91432470931056</v>
+        <v>66.91432470931055</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>12.95936051747324</v>
+        <v>12.95936051747319</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.70205894699502</v>
+        <v>46.70205894699494</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>59.75643049590911</v>
+        <v>59.75643049590909</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.93005270856667</v>
+        <v>14.93005270856654</v>
       </c>
     </row>
     <row r="723">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.69558923415143</v>
+        <v>30.6955892341514</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>6.588523994537812</v>
+        <v>6.58852399453766</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.76650147545648</v>
+        <v>24.76650147545638</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.230152064616</v>
+        <v>31.23015206461599</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.36970727585195</v>
+        <v>12.36970727585194</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.49115093637376</v>
+        <v>34.49115093637374</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.24803592956322</v>
+        <v>42.24803592956315</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.45733680486173</v>
+        <v>26.45733680486171</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>33.14051419762942</v>
+        <v>33.14051419762934</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.52747988884065</v>
+        <v>35.52747988884057</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.21793811361644</v>
+        <v>18.2179381136164</v>
       </c>
     </row>
     <row r="735">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.80137781968877</v>
+        <v>38.80137781968875</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.84420375345138</v>
+        <v>17.84420375345135</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.36347605184427</v>
+        <v>26.3634760518442</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.7296120894434</v>
+        <v>31.72961208944337</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>5.811349507347021</v>
+        <v>5.811349507346861</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.1745861330464</v>
+        <v>19.1745861330463</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.47306746146093</v>
+        <v>25.47306746146086</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>4.663674626791238</v>
+        <v>4.663674626791199</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.14430851251985</v>
+        <v>25.14430851251981</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.66285769362623</v>
+        <v>17.66285769362624</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.54809233250266</v>
+        <v>33.54809233250273</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.27348085094592</v>
+        <v>38.27348085094589</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.24951799515747</v>
+        <v>11.24951799515731</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>41.77637367101633</v>
+        <v>41.77637367101628</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.0279146324485</v>
+        <v>44.0279146324484</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>20.21763636551669</v>
+        <v>20.21763636551678</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>53.84144238581226</v>
+        <v>53.84144238581223</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.59379172561687</v>
+        <v>57.59379172561674</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>54.12027188606054</v>
+        <v>54.12027188606062</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>61.98606112369045</v>
+        <v>61.98606112369033</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>63.39938850438356</v>
+        <v>63.3993885043834</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.76095700674734</v>
+        <v>32.76095700674738</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>53.89564331187131</v>
+        <v>53.89564331187145</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>62.15359658172328</v>
+        <v>62.15359658172336</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>22.79716033512307</v>
+        <v>22.79716033512322</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>40.79771458278945</v>
+        <v>40.79771458278951</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>44.12211406843298</v>
+        <v>44.12211406843292</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>14.04201744880269</v>
+        <v>14.04201744880268</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>41.53303523632286</v>
+        <v>41.53303523632299</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>45.66496622584989</v>
+        <v>45.66496622584988</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.54306834984585</v>
+        <v>18.54306834984612</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>52.12057500963792</v>
+        <v>52.1205750096379</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>11.98708187864223</v>
+        <v>11.98708187864224</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.29223272187761</v>
+        <v>29.29223272187748</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.50761040953496</v>
+        <v>34.50761040953494</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>8.611762918474282</v>
+        <v>8.611762918474229</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>40.75940981136125</v>
+        <v>40.75940981136122</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>43.8549195109369</v>
+        <v>43.85491951093687</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>17.48283780451558</v>
+        <v>17.48283780451555</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>52.57680303952144</v>
+        <v>52.57680303952145</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.02164061845281</v>
+        <v>57.02164061845272</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>55.10822524525142</v>
+        <v>55.10822524525129</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>62.53505937295935</v>
+        <v>62.53505937295922</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>65.0516841808647</v>
+        <v>65.05168418086458</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.59572246440775</v>
+        <v>28.59572246440771</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>52.5268362471052</v>
+        <v>52.52683624710524</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>61.26865637467407</v>
+        <v>61.26865637467398</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>16.90913554766867</v>
+        <v>16.90913554766858</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.6477097263613</v>
+        <v>36.6477097263614</v>
       </c>
     </row>
     <row r="785">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>10.22402420743136</v>
+        <v>10.22402420743125</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>39.97864392104355</v>
+        <v>39.97864392104363</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.84198125347866</v>
+        <v>45.84198125347871</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>15.44916140539489</v>
+        <v>15.44916140539494</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>51.02958785365212</v>
+        <v>51.02958785365214</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>8.202897105260321</v>
+        <v>8.202897105260337</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>22.40912494502812</v>
+        <v>22.40912494502808</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.00351652666146</v>
+        <v>32.00351652666139</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>8.853193135371736</v>
+        <v>8.853193135371601</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.23197717035887</v>
+        <v>36.23197717035882</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>44.43309703418775</v>
+        <v>44.43309703418784</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>14.518717474227</v>
+        <v>14.51871747422707</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.25504952071196</v>
+        <v>45.25504952071197</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>54.49681266440685</v>
+        <v>54.49681266440687</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.414260825864</v>
+        <v>42.41426082586392</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>49.88399734962093</v>
+        <v>49.88399734962087</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>54.69157371570933</v>
+        <v>54.69157371570926</v>
       </c>
     </row>
     <row r="803">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>40.23954583828171</v>
+        <v>40.23954583828161</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>54.80243243527801</v>
+        <v>54.80243243527793</v>
       </c>
     </row>
     <row r="806">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.58537772024339</v>
+        <v>31.58537772024326</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>39.51504983874044</v>
+        <v>39.51504983874048</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.09337065965134</v>
+        <v>11.09337065965117</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.03415696494875</v>
+        <v>36.03415696494864</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>45.89470679636852</v>
+        <v>45.89470679636845</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.87638719064659</v>
+        <v>11.87638719064654</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>43.18601594639942</v>
+        <v>43.18601594639928</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.55031188236863</v>
+        <v>32.55031188236868</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.14034699816604</v>
+        <v>23.14034699816598</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.78590582722953</v>
+        <v>31.78590582722938</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.65510642072899</v>
+        <v>35.65510642072888</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.299872361826727</v>
+        <v>9.299872361826838</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.09794185340591</v>
+        <v>24.09794185340589</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.01893700472877</v>
+        <v>32.01893700472874</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.79736658884194</v>
+        <v>17.79736658884191</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.5560538889349</v>
+        <v>27.55605388893474</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.6467535623254</v>
+        <v>34.64675356232527</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>3.726712948135681</v>
+        <v>3.726712948135546</v>
       </c>
     </row>
     <row r="825">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>6.748673685394046</v>
+        <v>6.74867368539401</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.33163530411916</v>
+        <v>30.33163530411905</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.6209455186031</v>
+        <v>39.62094551860297</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.30240450550888</v>
+        <v>34.30240450550884</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.59187657197058</v>
+        <v>44.59187657197045</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>50.35588290165072</v>
+        <v>50.35588290165074</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.65585071536493</v>
+        <v>10.65585071536478</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.97851721362414</v>
+        <v>29.97851721362409</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.74507761144537</v>
+        <v>41.74507761144535</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>57.54656635877051</v>
+        <v>57.54656635877046</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>55.62464884823977</v>
+        <v>55.62464884823981</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>63.16679127829287</v>
+        <v>63.16679127829276</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>65.28498361158854</v>
+        <v>65.28498361158852</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.64879761141864</v>
+        <v>29.64879761141833</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>60.55442534334028</v>
+        <v>60.55442534334026</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>65.29826549361348</v>
+        <v>65.2982654936134</v>
       </c>
     </row>
     <row r="843">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>46.06765741230983</v>
+        <v>46.06765741230988</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.14265309422372</v>
+        <v>49.14265309422373</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>17.01697051638114</v>
+        <v>17.01697051638113</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>49.45588784922739</v>
+        <v>49.45588784922747</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.07162424691777</v>
+        <v>52.07162424691784</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.26397978941236</v>
+        <v>25.26397978941226</v>
       </c>
     </row>
     <row r="850">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>68.18970183515965</v>
+        <v>68.18970183515964</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>76.55361715634548</v>
+        <v>76.55361715634557</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>84.09522407067281</v>
+        <v>84.09522407067287</v>
       </c>
     </row>
     <row r="854">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>39.77289955578811</v>
+        <v>39.77289955578793</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>76.20618085826533</v>
+        <v>76.20618085826521</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>82.23908625658702</v>
+        <v>82.23908625658693</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.98789385074261</v>
+        <v>57.98789385074241</v>
       </c>
     </row>
     <row r="859">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>60.7171458419346</v>
+        <v>60.71714584193453</v>
       </c>
     </row>
     <row r="861">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.11716726458533</v>
+        <v>25.11716726458535</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>59.47130699829924</v>
+        <v>59.47130699829928</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>65.59710436596413</v>
+        <v>65.59710436596433</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.96452577554997</v>
+        <v>20.96452577554991</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>43.76298315543598</v>
+        <v>43.76298315543592</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>47.56343048462521</v>
+        <v>47.56343048462526</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.4193688238545</v>
+        <v>14.41936882385444</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>50.1246642030198</v>
+        <v>50.12466420301978</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>53.71265845940241</v>
+        <v>53.71265845940248</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.37006923902963</v>
+        <v>23.37006923902951</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>64.58335627721384</v>
+        <v>64.5833562772137</v>
       </c>
     </row>
     <row r="873">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>85.18315726462329</v>
+        <v>85.18315726462333</v>
       </c>
     </row>
     <row r="876">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>37.76605540001249</v>
+        <v>37.76605540001248</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>78.44698452156362</v>
+        <v>78.44698452156354</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>85.38565063757078</v>
+        <v>85.38565063757083</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>53.81761721121853</v>
+        <v>53.8176172112186</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>37.79489693856426</v>
+        <v>37.79489693856442</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>46.56773243883706</v>
+        <v>46.56773243883704</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>53.83615108656203</v>
+        <v>53.83615108656205</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.37460331214941</v>
+        <v>16.37460331214934</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>46.66852813800863</v>
+        <v>46.66852813800878</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.14619030914604</v>
+        <v>57.14619030914622</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.55702555649273</v>
+        <v>19.55702555649282</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.43827112562512</v>
+        <v>40.43827112562521</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>48.73256256471308</v>
+        <v>48.73256256471318</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.13187131102728</v>
+        <v>15.13187131102714</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.2802634477068</v>
+        <v>46.28026344770676</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>55.48889981858773</v>
+        <v>55.48889981858768</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>20.52468023901414</v>
+        <v>20.52468023901415</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>57.76289226878144</v>
+        <v>57.7628922687815</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>68.47141955730675</v>
+        <v>68.47141955730672</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>63.63560836540371</v>
+        <v>63.63560836540372</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>73.81611435904027</v>
+        <v>73.81611435904014</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>82.52098953099069</v>
+        <v>82.5209895309906</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.46373810749561</v>
+        <v>27.4637381074956</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>64.98709727063516</v>
+        <v>64.98709727063527</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>78.0708573267033</v>
+        <v>78.07085732670339</v>
       </c>
     </row>
   </sheetData>
